--- a/training_linux.xlsx
+++ b/training_linux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerom\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F38BF1-18CB-4215-B364-DBEB6142B2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A5D112-ED4B-4DBB-BBCC-BB301899BD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38325" yWindow="6225" windowWidth="26145" windowHeight="25455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46425" yWindow="3630" windowWidth="26505" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="319">
   <si>
     <t>Название команды</t>
   </si>
@@ -1877,29 +1877,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">git remote add origin </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(ссылка на репозиторий в гите)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>git commit -m</t>
     </r>
     <r>
@@ -3172,18 +3149,132 @@
   </si>
   <si>
     <t>3. git push origin (назвение ветки)</t>
+  </si>
+  <si>
+    <t>запушить афйл в новую ветку</t>
+  </si>
+  <si>
+    <t>git push --set-upstream origin (имя новой ветки)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">как создать репозиторий в гите с 2-мя ветками </t>
+  </si>
+  <si>
+    <t>1.создаём репозиторий на гите с галочкой readme</t>
+  </si>
+  <si>
+    <t>2. создаём 1-ую папку локально и прописываем git init п.80</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">git remote add origin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ссылка на репозиторий в гите)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.git remote add </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(origin это имя ХУЙ ЗНАЕТ ЧТО)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ссылка на репозиторий в гите) куда будут загружаться файлы</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4.добавляем файлы через git add  5.git commit -m "коментарий" 6.создать ветку git branch (название) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. переключиться на ветку git checkout(название) 8. git push --set-upstream </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">origin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(название ветки)</t>
+    </r>
+  </si>
+  <si>
+    <t>ВАЖНО ОБНОВЛЯТЬ ФАЙЛЫ ПРОЧТО ТЧЕРЕЗ git push</t>
+  </si>
+  <si>
+    <t>получения файлов GIT с другого пк</t>
+  </si>
+  <si>
+    <t>1. git clone (ссылку на репозиторий)</t>
+  </si>
+  <si>
+    <t>2. git checkout (название ветки) далее обновить папку и всё появится</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3299,6 +3390,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3344,7 +3443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3355,10 +3454,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3367,31 +3466,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5473,8 +5575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5625,7 +5727,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -5809,7 +5911,7 @@
         <v>67</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>68</v>
@@ -5892,7 +5994,7 @@
         <v>82</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>83</v>
@@ -5907,7 +6009,7 @@
         <v>84</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>85</v>
@@ -5922,7 +6024,7 @@
         <v>86</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>87</v>
@@ -5943,7 +6045,7 @@
         <v>88</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>89</v>
@@ -5958,7 +6060,7 @@
         <v>90</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>91</v>
@@ -5973,16 +6075,16 @@
         <v>92</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>273</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>274</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -5995,7 +6097,7 @@
         <v>95</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -6007,7 +6109,7 @@
         <v>96</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>97</v>
@@ -6045,7 +6147,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -6067,10 +6169,10 @@
         <v>106</v>
       </c>
       <c r="B37" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -6084,7 +6186,7 @@
         <v>107</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>108</v>
@@ -6101,7 +6203,7 @@
         <v>109</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>110</v>
@@ -6135,7 +6237,7 @@
         <v>113</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>114</v>
@@ -6152,10 +6254,10 @@
         <v>116</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -6169,10 +6271,10 @@
         <v>117</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -6186,7 +6288,7 @@
         <v>120</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>159</v>
@@ -6203,7 +6305,7 @@
         <v>121</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -6218,7 +6320,7 @@
         <v>123</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6231,7 +6333,7 @@
         <v>124</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6244,13 +6346,13 @@
         <v>125</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -6276,7 +6378,7 @@
         <v>130</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>131</v>
@@ -6309,7 +6411,7 @@
         <v>136</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -6324,7 +6426,7 @@
         <v>138</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -6352,7 +6454,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -6367,7 +6469,7 @@
         <v>144</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -6395,7 +6497,7 @@
         <v>148</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>152</v>
@@ -6450,7 +6552,7 @@
         <v>157</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -6465,7 +6567,7 @@
         <v>160</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -6486,7 +6588,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G64" s="1"/>
     </row>
@@ -6499,7 +6601,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G65" s="1"/>
     </row>
@@ -6564,7 +6666,7 @@
         <v>175</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>176</v>
@@ -6726,7 +6828,7 @@
         <v>212</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>213</v>
@@ -6749,7 +6851,7 @@
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G81" s="1"/>
     </row>
@@ -6773,10 +6875,10 @@
         <v>220</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -6787,8 +6889,8 @@
       <c r="A84" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B84" s="13" t="s">
-        <v>249</v>
+      <c r="B84" s="19" t="s">
+        <v>311</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -6835,8 +6937,12 @@
       <c r="B87" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -6856,7 +6962,7 @@
         <v>236</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>237</v>
@@ -7066,10 +7172,10 @@
     </row>
     <row r="109" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -7079,16 +7185,16 @@
     </row>
     <row r="110" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="D110" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -7096,13 +7202,13 @@
     </row>
     <row r="111" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -7111,10 +7217,10 @@
     </row>
     <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -7124,10 +7230,10 @@
     </row>
     <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -7135,19 +7241,39 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
+    <row r="114" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>

--- a/training_linux.xlsx
+++ b/training_linux.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerom\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerom\OneDrive\Desktop\git_win\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A5D112-ED4B-4DBB-BBCC-BB301899BD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9DDAD3-5E4C-457E-8D07-4CF3A33BD4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46425" yWindow="3630" windowWidth="26505" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="406">
   <si>
     <t>Название команды</t>
   </si>
@@ -3255,18 +3255,297 @@
   </si>
   <si>
     <t>2. git checkout (название ветки) далее обновить папку и всё появится</t>
+  </si>
+  <si>
+    <t>Теория</t>
+  </si>
+  <si>
+    <t>1.Знание загрузки компьютера</t>
+  </si>
+  <si>
+    <t>Bios</t>
+  </si>
+  <si>
+    <t>uefi</t>
+  </si>
+  <si>
+    <t>Входи в биос происходит посредством нажатий клавишь f2,f4,f10,delete и на некоторых моделях ноутбука fn+f2</t>
+  </si>
+  <si>
+    <t>Вход производится так же как в биос но сама система Uefi является более новой, позволяет работать с более высоким объемом дисков, быстрее и более надёжна, так же обладает графическим оформлением.</t>
+  </si>
+  <si>
+    <t>2.Знание  файловой системы  fat(13/32/vFat)</t>
+  </si>
+  <si>
+    <t>Файловая система необходима для записи и считываю данных с дисков, fat16 имеет свойство считыавания файла размером не более 2 гб,  а вот fat32 уже 4 гб, vfat это расширение  появилось с выходом виндовс 95 и дала возможность использовать длинные имена</t>
+  </si>
+  <si>
+    <t>2.1 Понятие партиция</t>
+  </si>
+  <si>
+    <t>Партиция -  это раздел на диске, а именно часть диска с долговременной памятью</t>
+  </si>
+  <si>
+    <t>2.2 Понятие кластер</t>
+  </si>
+  <si>
+    <t>Например кластер серверов, это несколько объеденёных серверов  в одну сеть локально и обрабатывающие одинаковые данные как единое целое.</t>
+  </si>
+  <si>
+    <t>2.3 Понятие файл</t>
+  </si>
+  <si>
+    <t>Файл это обьект взаимодействия с программой или операционной системой</t>
+  </si>
+  <si>
+    <t>2.4 понятие папка (каталог)</t>
+  </si>
+  <si>
+    <t>Это объект файловой системы который позволяет структурировать работу в ОС, так же может хранить как файлы так и другие папки</t>
+  </si>
+  <si>
+    <t>2.5  Назвать колличество основных партиций</t>
+  </si>
+  <si>
+    <t>на виндовс 1, а на линукс системах 4. при создании партиции создаётся 9 разделов, 1,2,3 являются основными,4-ый основной но используется для хранения информации с5-ого по 9-ый</t>
+  </si>
+  <si>
+    <t>Создаются командой mkfs (mke2fs,mkreiserfs) далее можно просмотреть разделы командой fdisk 'fdisk/dev/hda' или 'fdisk/dev/sda' далее (p)</t>
+  </si>
+  <si>
+    <t>2.6 Что такое расширенная партиция</t>
+  </si>
+  <si>
+    <t>Это первичный раздел который не содержит собственной файловой системы но содержит другие логические разделы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7 Дать  значение предельных лимитов партиции по объему байт </t>
+  </si>
+  <si>
+    <t>2.8 Рассчитать занимаемый объем на диске объемом 2Тб для 10 файлов по 1 байту при условии диск пустой файловая система fat32, одна партиция</t>
+  </si>
+  <si>
+    <t>3.Сети</t>
+  </si>
+  <si>
+    <t>3.1 Модель OSI</t>
+  </si>
+  <si>
+    <t>3.2 Определение понятия MAC адрес</t>
+  </si>
+  <si>
+    <t>Mac адрес это имя сетевого оборудования устрйоства которое присваивается ещё на заводе и имеет 48 символов в виде убкв и цифр (Мак адрес возможно изменить через консоль)</t>
+  </si>
+  <si>
+    <t>3.3 Определение IP</t>
+  </si>
+  <si>
+    <t>ip имя позволяющее передавать информацию по сети как локальной так и внешней. Так же он содержит информацию о местоположении устройства и обеспечивает его доступность для связи. Имеет набор из 4 чисел в дапозоне до 255.255.255.255</t>
+  </si>
+  <si>
+    <t>3.4 Чем отличается канальный уровень от сетевого</t>
+  </si>
+  <si>
+    <t>3.5 Определение понятия ARP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Это протокол связи используемый для обноружения адреса канального уровня модели OSI, а именно MAC  адреса, обычно по ipv4 </t>
+  </si>
+  <si>
+    <t>3.6 Что такое комутатор</t>
+  </si>
+  <si>
+    <t>Комутатор это прибор объединяет несколько устрйоств в одну сеть по средством своего подключения для обмена данных. Подключать возможно компьютеры ,ноутбуки сервера или другие комутаторы</t>
+  </si>
+  <si>
+    <t>3.7 Что такое маршрутизатор</t>
+  </si>
+  <si>
+    <t>Это сетевое устрйоство которое подключается между локальной сетью и интернетом</t>
+  </si>
+  <si>
+    <t>Маршрутизатор так же имеет возможности защиты самой локальной сети из вне ,раздаёт Ip ,шифрует трафик, и так же может ограничивать доступ пользователей локальной сетив  интернет</t>
+  </si>
+  <si>
+    <t>3.8 сколько дефол-гетвеев может быть на одной ОС ?</t>
+  </si>
+  <si>
+    <t>3.9 Что такое таблица маршрутизации и дефолт гетвеи ?</t>
+  </si>
+  <si>
+    <t>Таблица маршрутизации пердставляет собой таблицу состоящую из сетевых маршрутов для более быстрого и надёжного подключения</t>
+  </si>
+  <si>
+    <t>Дефолт сетевой шлюз (Гетвей) - Является аппаратным или програмным обеспеченье для сопряжения работы компьютерной сети.</t>
+  </si>
+  <si>
+    <t>3.10. Объяснить, как компьютер из сети 192.168.1.100 может «увидеть» компьютер в сети 192.168.2.100 при условии, что они подключены к одному коммутатору.</t>
+  </si>
+  <si>
+    <t>для передачи данных от 192.168.1.100 до 192.168.2.100 устройства используют MAC адреса, (Для такой передачи устройства должны иметь одну маску) , а нам МАС не известен, только ip, тут то как раз нужен протокол ARP.
+ARP состоит из двух частей. Первая – определяет физический адрес при посылке пакета, вторая – отвечает на запросы других станций.
+Пример ARP-таблицы.
+192.168.1.1 08:10:29:00:2F:C3
+192.168.1.2 08:30:39:00:2F:C4
+Слева – IP-адреса, справа – MAC-адреса.
+Прежде, чем подключиться к одному из устройств, IP-протокол проверяет, есть ли в его ARP-таблице запись о соответствующем устройстве. Если такая запись имеется, то происходит непосредственно подключение и передача пакетов. Если же нет, то посылается широковещательный ARP-запрос, который выясняет, какому из устройств принадлежит IP-адрес. Идентифицировав себя, устройство посылает в ответ свой MAC-адрес, а в ARP-таблицу отправителя заносится соответствующая запись.</t>
+  </si>
+  <si>
+    <t>4. UNIX/Linux</t>
+  </si>
+  <si>
+    <t>4.1  Что такое GRUB</t>
+  </si>
+  <si>
+    <t>https://unix.stackexchange.com/questions/33555/what-is-the-max-partition-supported-in-linux</t>
+  </si>
+  <si>
+    <t>На одну партицию максимально возможно таблица разделов MBR 2тб (2 199 023 255 552)</t>
+  </si>
+  <si>
+    <t>https://selectel.ru/blog/osi-for-beginners/</t>
+  </si>
+  <si>
+    <t>Канальный урвоень является вторым ,на этом уровне osi работают комутаторы и их задача передать сформированные кадры от одного устройства к другому используя в качестве адреса только физические MAC адреса,а сетевой уровень является 3-им и в него включён уже  маршрутизатор который в свою очередь получают MAC адрес от комутатора  и занимается построения маршрута с учётом всех неполадок сети. На этом уровне используется arp протокол с помощью которого 64 битные MAC адреса приобразуются в 32 битные IP адреса</t>
+  </si>
+  <si>
+    <t>Это первая программа которая запускает при включение компьютера, она загружает ядро процесора которое в свою очередь запускает остальные части операциолнной системы</t>
+  </si>
+  <si>
+    <t>Гетвей это сетевой шлюз. Является аппаратным или програмным обеспеченье для сопряжения работы компьютерной сети. Может быть столько, сколько подсетей назначено</t>
+  </si>
+  <si>
+    <t>Сетевой шлюз - это точка которая служит выходом в другую сеть.</t>
+  </si>
+  <si>
+    <t>Для начала необходимо узнать размер кластера и далее посчитать. Ответ будет 320кбайт</t>
+  </si>
+  <si>
+    <t>консоль grub находится по пути /boot/grub. Так же необходимо подгрузить не достающие модули, после чего можно спокойно работать grub. Ls - просмотр файлов и тд . Загрузка модулей - (insmod ext2) (insmod normal) 
+normal</t>
+  </si>
+  <si>
+    <t>команды: dump - очистка памяти,exit, boot,cat,chain,help insmod, linux,ls,multiboot,normal,set,unset</t>
+  </si>
+  <si>
+    <t>Ls, cd, mkdir, cat, rm, mv, cp</t>
+  </si>
+  <si>
+    <t>программа запускается если прописать её название, иногда добавляют параметр, но на некоторых ОС, некоторые программы можно запустить только прописав путь к файла и далее название. Запуск программы в фоне осуществляется так, название программы &amp;. Скрипты запускаеются несколько иначе, для начала необходимо указать название программы которая откроет файл с нужным расширением, например, python3 python.py, bash testfile.sh. и так далее.  Некоторые программы требуют запуск от имени администратора, для этого используем команду sudo</t>
+  </si>
+  <si>
+    <t>4.2 Использование GRUB Recue, команды</t>
+  </si>
+  <si>
+    <t>4.3 основные команды для работы с каталогами и файлами</t>
+  </si>
+  <si>
+    <t>4.4 способы запуска программ</t>
+  </si>
+  <si>
+    <t>4.5 консольные редакторы Текса</t>
+  </si>
+  <si>
+    <t>ano, vi, Joe, medit</t>
+  </si>
+  <si>
+    <t>4.6 назначение каталогов в Unix и Linux системах</t>
+  </si>
+  <si>
+    <t>В файловой системе находится множество каталогов которые хронят различную информацию</t>
+  </si>
+  <si>
+    <t>/ - корневой каталог, /bin - основные бинарные файлы (программы),/boot - файлы для загрузки ОС и тд ,смотри скрины</t>
+  </si>
+  <si>
+    <t>4.7 где и как посмотреть отчёты о работе системы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">посмотреть можно в логах, логи находятся по пути /var/log. (лог - Dpkg.log только в системах дебиан.) Просмотр логов можно проводить с помощью текстовых редакторов. </t>
+  </si>
+  <si>
+    <t>4.8 Как установить необходимый пакет для Ubuntu или CentOS</t>
+  </si>
+  <si>
+    <t>пакеты устанавливаются с помощью yum например 
+sudo yum install  название пакета.</t>
+  </si>
+  <si>
+    <t>5. Виндовс и другие продукты решения майкрософт</t>
+  </si>
+  <si>
+    <t>5.1 Служба каталогов Active Directory, возможности, применение.</t>
+  </si>
+  <si>
+    <t>Это служба каталогов разработанная виндовс для управления доменной сетью. Её возможности заключаются в создании единой сети , централизованном управлении и администрировании с использованием групповой политики.</t>
+  </si>
+  <si>
+    <t>5.2 Логирование событий в Windows – по умолчанию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физически Журнал событий представляет собой набор файлов в формате EVTX, хранящихся в системной папке SystemRoot/System32/Winevt/Logs. Просмотреть можно их через eventvwreventvwr приложение. Так же открыть сам журнал можно командой в терминале (win+r) eventvwr.msc. с левой стороны будут 3 журнала но как правило используется виндовс журнал. </t>
+  </si>
+  <si>
+    <t>Windows 10 подробно записывает все события, в том числе ошибки. Просматривая сведения о них, можно найти причину сбоя.</t>
+  </si>
+  <si>
+    <t>5.3 MS Exchange архитектура решения, как искать, удалять письма в ящиках, как смотреть логи отправки/получения.</t>
+  </si>
+  <si>
+    <t>5.4 Выдача прав доступа на папки, чем отличаются вкладки Безопасность и Доступ.</t>
+  </si>
+  <si>
+    <t>Вкалака «Безопасность» — это разрешения файловой системы (NTFS). Проверяется при любом доступе к файлу.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вкладка «Доступ» — разрешения на доступ к сетевому ресурсу (корень диска по умолчанию доступен из сети администраторам). Проверяется при доступе к шаре (и всем папкам внутри неё). Разрешения NTFS при доступе по сети тоже учитываются.
+</t>
+  </si>
+  <si>
+    <t>Вкладка "Доступ" для доступа(совместного использования) по сети.
+Вкладка "Безопасность" права на NTFS раздел(т.е. как бы локальный доступ к папке).</t>
+  </si>
+  <si>
+    <t>Для  удаления пишем Get-Mailbox -resultsize unlimited | Search-Mailbox -SearchQuery ‘Subject:"happy new year"‘ -DeleteContent -confirm:$false       - сначала находит данные письма ,после чего удаляем их командой</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> это продукт для обмена сообщений. . Поиск Start-MailboxSearch "текст" На Powershel. </t>
+  </si>
+  <si>
+    <t>логи хранятся по адресу %ExchangeInstallPath%TransportRoles\Logs\MessageTracking</t>
+  </si>
+  <si>
+    <t>Поиск лучше осуществлятьс  помощьюб команды Get-MessageTrackingLog консоли Exchange Management Shell.</t>
+  </si>
+  <si>
+    <t>6. Виртуализация</t>
+  </si>
+  <si>
+    <t>6.1 Vmware Horizon архитектура решения, методы подключения к столам.</t>
+  </si>
+  <si>
+    <t>https://winitpro.ru/index.php/2019/04/05/get-messagetrackinglog-exchange/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3398,8 +3677,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3430,6 +3717,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3440,10 +3745,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3454,10 +3760,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3466,36 +3772,53 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -3799,8 +4122,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1610412</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1591362</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>2133895</xdr:rowOff>
     </xdr:to>
@@ -4099,8 +4422,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>771840</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2257740</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>138</xdr:rowOff>
     </xdr:to>
@@ -4499,8 +4822,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1810040</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3295940</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>943104</xdr:rowOff>
     </xdr:to>
@@ -4649,8 +4972,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1819275</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3305175</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>1532034</xdr:rowOff>
     </xdr:to>
@@ -4793,16 +5116,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>933449</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>2686050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>776166</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>2886075</xdr:rowOff>
+      <xdr:rowOff>2876550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4831,7 +5154,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2457449" y="65474850"/>
+          <a:off x="2581274" y="65274825"/>
           <a:ext cx="4109917" cy="2886075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4849,8 +5172,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>549646</xdr:rowOff>
     </xdr:to>
@@ -5049,8 +5372,8 @@
       <xdr:rowOff>1514475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1564250</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2945375</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5093,16 +5416,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3028950</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2157015</xdr:colOff>
+      <xdr:colOff>271065</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5131,7 +5454,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5505450" y="82429350"/>
+          <a:off x="5591175" y="82438875"/>
           <a:ext cx="5176440" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5144,15 +5467,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>1514475</xdr:rowOff>
+      <xdr:rowOff>1885950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2286000</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>76798</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>67273</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5181,7 +5504,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10668000" y="82419825"/>
+          <a:off x="10953750" y="82410300"/>
           <a:ext cx="3267075" cy="2372323"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5291,12 +5614,312 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2190751</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>3427</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Рисунок 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5145D3F0-19CB-4F2B-8830-835E21BA0D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457451" y="113366550"/>
+          <a:ext cx="2190750" cy="2718052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1828799</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596387</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>1257299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Рисунок 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C22580B3-C284-4BD8-8ABF-6B1C98B1629B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743824" y="110728124"/>
+          <a:ext cx="16779363" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>4072258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Рисунок 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FA10A5-88A1-4EBD-AD6C-F4220508EA02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829551" y="112861725"/>
+          <a:ext cx="4067174" cy="9006208"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2909965</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>4086225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Рисунок 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB563AB6-3459-4EF1-A1BA-5C8F9E430AFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11896725" y="112861725"/>
+          <a:ext cx="4633990" cy="9020175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3333750</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2081290</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>1733550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Рисунок 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE88C68-1612-41FF-A2FD-0CFB7CED8131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="121900950"/>
+          <a:ext cx="3948190" cy="6924675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>5136730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Рисунок 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F2725A-C5FE-4259-8B48-2E6B2F8D3E74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5915026" y="128987550"/>
+          <a:ext cx="2371724" cy="5136730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CEEFD05E-53D2-45D0-9B71-AC09829B40BC}" name="Таблица1" displayName="Таблица1" ref="A1:G119" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G119" xr:uid="{CEEFD05E-53D2-45D0-9B71-AC09829B40BC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CEEFD05E-53D2-45D0-9B71-AC09829B40BC}" name="Таблица1" displayName="Таблица1" ref="A1:G186" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G186" xr:uid="{CEEFD05E-53D2-45D0-9B71-AC09829B40BC}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{9B9628C7-EFE2-40D9-8E07-B9C2A125ECEE}" name="Название команды" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{5847F44E-74D8-49D4-95F2-7D8EFA809853}" name="Команда" dataDxfId="5"/>
@@ -5573,17 +6196,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="50.28515625" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="6" width="46.85546875" customWidth="1"/>
@@ -5643,7 +6266,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -5658,7 +6281,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -5673,7 +6296,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -5688,7 +6311,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -5861,7 +6484,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
@@ -5876,7 +6499,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
@@ -5891,7 +6514,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -5925,7 +6548,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -5974,7 +6597,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>79</v>
       </c>
@@ -5989,7 +6612,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -6055,7 +6678,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>90</v>
       </c>
@@ -6070,7 +6693,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
@@ -6089,7 +6712,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>94</v>
       </c>
@@ -6104,7 +6727,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>96</v>
       </c>
@@ -6119,7 +6742,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -6134,7 +6757,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
@@ -6164,7 +6787,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>106</v>
       </c>
@@ -6181,7 +6804,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>107</v>
       </c>
@@ -6215,7 +6838,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>115</v>
       </c>
@@ -6232,7 +6855,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>113</v>
       </c>
@@ -6266,7 +6889,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
@@ -6283,7 +6906,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>120</v>
       </c>
@@ -6300,7 +6923,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>121</v>
       </c>
@@ -6358,7 +6981,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>127</v>
       </c>
@@ -6373,7 +6996,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>130</v>
       </c>
@@ -6388,7 +7011,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>134</v>
       </c>
@@ -6403,7 +7026,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>135</v>
       </c>
@@ -6446,7 +7069,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>141</v>
       </c>
@@ -6461,7 +7084,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>143</v>
       </c>
@@ -6489,7 +7112,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>147</v>
       </c>
@@ -6729,7 +7352,7 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>187</v>
       </c>
@@ -6744,7 +7367,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>188</v>
       </c>
@@ -6759,7 +7382,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>190</v>
       </c>
@@ -6823,7 +7446,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>212</v>
       </c>
@@ -6855,7 +7478,7 @@
       </c>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>217</v>
       </c>
@@ -6870,7 +7493,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>220</v>
       </c>
@@ -7136,7 +7759,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>241</v>
       </c>
@@ -7153,7 +7776,7 @@
       </c>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>245</v>
       </c>
@@ -7264,7 +7887,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>316</v>
       </c>
@@ -7279,48 +7902,828 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
+    <row r="116" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+    </row>
+    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+    <row r="119" spans="1:7" ht="345" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:7" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D136" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" ht="360" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" ht="322.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D145" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="24"/>
+    </row>
+    <row r="146" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C152" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G152" s="25" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G152" r:id="rId1" xr:uid="{06ACBFED-3251-41FF-906E-D29403F746C6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/training_linux.xlsx
+++ b/training_linux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerom\OneDrive\Desktop\git_win\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9DDAD3-5E4C-457E-8D07-4CF3A33BD4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F2DCAB-BA6E-4BA8-86E8-6240DF762BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="411">
   <si>
     <t>Название команды</t>
   </si>
@@ -3526,6 +3526,23 @@
   </si>
   <si>
     <t>https://winitpro.ru/index.php/2019/04/05/get-messagetrackinglog-exchange/</t>
+  </si>
+  <si>
+    <t>Это приложение которое позволяет администрировать сразу несколько рабочих станций , например обновлять их. Администратор включает машину ,у станавливает на неё необходимые изменения , далее тестирует и выключает, а дальше в назначенное время изменения у других пользователей применятся в назначенное время.</t>
+  </si>
+  <si>
+    <t>так же преимуществом считается возможность централизованого резервного копирования</t>
+  </si>
+  <si>
+    <t>Подключиться к своему виртуальному рабочему столу через защищенное подключение SSL пользователь может из любой точки мира, где есть интернет.
+При этом пользователь может использовать ПК, ноутбуки, планшеты, смартфоны.
+Помимо этого, использовать свой рабочий стол пользователь сможет даже там, где интернета не будет доступен, с помощью режима local mode.</t>
+  </si>
+  <si>
+    <t>6.2. Vcloud Director – архитектура решения, отличие «организации» от «VDC», понятие квотирования ресурсов.</t>
+  </si>
+  <si>
+    <t>6.3. Vmware– архитектура решения, что такое esxi, vcenter, vsphere, механизм балансировки DRS, sDRS, отличие HA от FT.</t>
   </si>
 </sst>
 </file>
@@ -6198,8 +6215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8425,29 +8442,39 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
+      <c r="C155" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
+      <c r="B156" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
+      <c r="B157" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>

--- a/training_linux.xlsx
+++ b/training_linux.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerom\OneDrive\Desktop\git_win\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerom\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F2DCAB-BA6E-4BA8-86E8-6240DF762BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34AE135-4F3F-49BF-8CBF-B9F17F0E7896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="422">
   <si>
     <t>Название команды</t>
   </si>
@@ -3422,19 +3422,12 @@
     <t>Для начала необходимо узнать размер кластера и далее посчитать. Ответ будет 320кбайт</t>
   </si>
   <si>
-    <t>консоль grub находится по пути /boot/grub. Так же необходимо подгрузить не достающие модули, после чего можно спокойно работать grub. Ls - просмотр файлов и тд . Загрузка модулей - (insmod ext2) (insmod normal) 
-normal</t>
-  </si>
-  <si>
     <t>команды: dump - очистка памяти,exit, boot,cat,chain,help insmod, linux,ls,multiboot,normal,set,unset</t>
   </si>
   <si>
     <t>Ls, cd, mkdir, cat, rm, mv, cp</t>
   </si>
   <si>
-    <t>программа запускается если прописать её название, иногда добавляют параметр, но на некоторых ОС, некоторые программы можно запустить только прописав путь к файла и далее название. Запуск программы в фоне осуществляется так, название программы &amp;. Скрипты запускаеются несколько иначе, для начала необходимо указать название программы которая откроет файл с нужным расширением, например, python3 python.py, bash testfile.sh. и так далее.  Некоторые программы требуют запуск от имени администратора, для этого используем команду sudo</t>
-  </si>
-  <si>
     <t>4.2 Использование GRUB Recue, команды</t>
   </si>
   <si>
@@ -3447,9 +3440,6 @@
     <t>4.5 консольные редакторы Текса</t>
   </si>
   <si>
-    <t>ano, vi, Joe, medit</t>
-  </si>
-  <si>
     <t>4.6 назначение каталогов в Unix и Linux системах</t>
   </si>
   <si>
@@ -3462,45 +3452,13 @@
     <t>4.7 где и как посмотреть отчёты о работе системы</t>
   </si>
   <si>
-    <t xml:space="preserve">посмотреть можно в логах, логи находятся по пути /var/log. (лог - Dpkg.log только в системах дебиан.) Просмотр логов можно проводить с помощью текстовых редакторов. </t>
-  </si>
-  <si>
     <t>4.8 Как установить необходимый пакет для Ubuntu или CentOS</t>
   </si>
   <si>
-    <t>пакеты устанавливаются с помощью yum например 
-sudo yum install  название пакета.</t>
-  </si>
-  <si>
     <t>5. Виндовс и другие продукты решения майкрософт</t>
   </si>
   <si>
-    <t>5.1 Служба каталогов Active Directory, возможности, применение.</t>
-  </si>
-  <si>
-    <t>Это служба каталогов разработанная виндовс для управления доменной сетью. Её возможности заключаются в создании единой сети , централизованном управлении и администрировании с использованием групповой политики.</t>
-  </si>
-  <si>
-    <t>5.2 Логирование событий в Windows – по умолчанию</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Физически Журнал событий представляет собой набор файлов в формате EVTX, хранящихся в системной папке SystemRoot/System32/Winevt/Logs. Просмотреть можно их через eventvwreventvwr приложение. Так же открыть сам журнал можно командой в терминале (win+r) eventvwr.msc. с левой стороны будут 3 журнала но как правило используется виндовс журнал. </t>
-  </si>
-  <si>
     <t>Windows 10 подробно записывает все события, в том числе ошибки. Просматривая сведения о них, можно найти причину сбоя.</t>
-  </si>
-  <si>
-    <t>5.3 MS Exchange архитектура решения, как искать, удалять письма в ящиках, как смотреть логи отправки/получения.</t>
-  </si>
-  <si>
-    <t>5.4 Выдача прав доступа на папки, чем отличаются вкладки Безопасность и Доступ.</t>
-  </si>
-  <si>
-    <t>Вкалака «Безопасность» — это разрешения файловой системы (NTFS). Проверяется при любом доступе к файлу.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вкладка «Доступ» — разрешения на доступ к сетевому ресурсу (корень диска по умолчанию доступен из сети администраторам). Проверяется при доступе к шаре (и всем папкам внутри неё). Разрешения NTFS при доступе по сети тоже учитываются.
-</t>
   </si>
   <si>
     <t>Вкладка "Доступ" для доступа(совместного использования) по сети.
@@ -3510,39 +3468,1214 @@
     <t>Для  удаления пишем Get-Mailbox -resultsize unlimited | Search-Mailbox -SearchQuery ‘Subject:"happy new year"‘ -DeleteContent -confirm:$false       - сначала находит данные письма ,после чего удаляем их командой</t>
   </si>
   <si>
-    <t xml:space="preserve"> это продукт для обмена сообщений. . Поиск Start-MailboxSearch "текст" На Powershel. </t>
-  </si>
-  <si>
-    <t>логи хранятся по адресу %ExchangeInstallPath%TransportRoles\Logs\MessageTracking</t>
-  </si>
-  <si>
-    <t>Поиск лучше осуществлятьс  помощьюб команды Get-MessageTrackingLog консоли Exchange Management Shell.</t>
-  </si>
-  <si>
     <t>6. Виртуализация</t>
   </si>
   <si>
-    <t>6.1 Vmware Horizon архитектура решения, методы подключения к столам.</t>
-  </si>
-  <si>
     <t>https://winitpro.ru/index.php/2019/04/05/get-messagetrackinglog-exchange/</t>
   </si>
   <si>
-    <t>Это приложение которое позволяет администрировать сразу несколько рабочих станций , например обновлять их. Администратор включает машину ,у станавливает на неё необходимые изменения , далее тестирует и выключает, а дальше в назначенное время изменения у других пользователей применятся в назначенное время.</t>
-  </si>
-  <si>
     <t>так же преимуществом считается возможность централизованого резервного копирования</t>
   </si>
   <si>
-    <t>Подключиться к своему виртуальному рабочему столу через защищенное подключение SSL пользователь может из любой точки мира, где есть интернет.
+    <t>Это инструмент управления облачной инфраструктурой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=X2-pV9ChUGU       VM - виртуальная машина </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vmware DRS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  — это система, которая позволяет автоматически сбалансировать ВМ в кластерной среде vSphere. ---------------------------------------------------------------------------------</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - виртуалка одна, в случае аварии на хосте - будет перезапущена на другом хосте. Соответственно хранилище должно быть доступно обоим хостам одновременно.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - виртуалок две. Одна исполняется, на вторую сливаются изменения памяти и состояния cpu. Хранилище тоже нужное общее, чтобы состояние дисков не синхронизировать
+Во втором случае переключение в случае аварии происходит гораздо быстрее, чем надо времени для старта новой виртуалки.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VMWare ESXi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - это гипервизор, програмное обеспеченье которое устанавливает на физический сервер для создания нескольких ВМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> VM ware</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - крупнейший разработчик программного обеспечения для виртуализации.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vmware</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">– архитектура решения, что такое </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>esxi, vcenter, vsphere</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, механизм балансировки </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DRS, sDRS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, отличие </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> от </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">VMWare vCenter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— это платформа централизованного управления . </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>С её помощью вы можете распоряжаться почти всеми процессами всего с одной консоли</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VMWare vSphere</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>это платформа виртуализации промышленного уровня</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. К набору программных компонентов, входящих в нее, относятся в числе прочих гипервизор</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ESXi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и решение для управления </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vCenter Server.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vaap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - это контейнер для хранения виртуальных машин, с помощью него можно управлять целыми наборами виртуальных машин, можно включать их, выключать , перезагружать</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vdc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -это виртуальный дата центр, это пул доступных облачных ресурсов, тут создаются виртуальные машины, контейреры vapp и управлять сетевыми натсройками.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>организация</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> это контейнер в облаке который содержит один или несколько виртуальных дата центров, так же может содержать произвольное колличество пользователей и групп</t>
+    </r>
+  </si>
+  <si>
+    <t>? Что такое квотирвоание ресурсов</t>
+  </si>
+  <si>
+    <r>
+      <t>6.2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Vcloud Director</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – архитектура решения, отличие «</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>организации</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>» от «</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VDC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">», понятие </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>квотирования ресурсов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Vmware Horizon </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>архитектура решения, методы подключения к столам.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Это приложение которое позволяет администрировать сразу несколько рабочих станций , например обновлять их.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Администратор включает машину ,у станавливает на неё необходимые изменения , далее тестирует и выключает, а дальше в назначенное время изменения у других пользователей применятся в назначенное время.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Подключиться к своему виртуальному рабочему столу </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>через защищенное подключение SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> пользователь может из любой точки мира, где есть интернет.
 При этом пользователь может использовать ПК, ноутбуки, планшеты, смартфоны.
-Помимо этого, использовать свой рабочий стол пользователь сможет даже там, где интернета не будет доступен, с помощью режима local mode.</t>
-  </si>
-  <si>
-    <t>6.2. Vcloud Director – архитектура решения, отличие «организации» от «VDC», понятие квотирования ресурсов.</t>
-  </si>
-  <si>
-    <t>6.3. Vmware– архитектура решения, что такое esxi, vcenter, vsphere, механизм балансировки DRS, sDRS, отличие HA от FT.</t>
+Помимо этого, использовать свой рабочий стол пользователь сможет даже там, где интернета не будет доступен, с помощью режима </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>local mode.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Вкалака «</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Безопасност</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ь» — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>это разрешения файловой системы (NTFS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Проверяется при любом доступе к файлу.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Вкладка «Доступ» — разрешения на доступ к сетевому ресурсу (корень диска по умолчанию доступен из сети администраторам). Проверяется при доступе к шаре</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(и всем папкам внутри неё). Разрешения NTFS при доступе по сети тоже учитываются.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.4 Выдача прав доступа на папки, чем отличаются вкладки </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Безопасность и Доступ.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MS Exchange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>архитектура решения, как искать, удалять письма в ящиках, как смотреть логи отправки/получения.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> это продукт для обмена сообщений. . Поиск </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Start-MailboxSearch "текст"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> На </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powershel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">логи хранятся по адресу </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%ExchangeInstallPath%TransportRoles\Logs\MessageTracking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Поиск лучше осуществлятьс  помощьюб команды </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Get-MessageTrackingLog </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>консоли Exchange Management Shell.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Логирование событий в Windows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – по умолчанию</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Физически Журнал событий представляет собой набор файлов в формате EVTX, хранящихся в системной папке </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SystemRoot/System32/Winevt/Logs.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Просмотреть можно их через </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eventvwreventvwr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>приложение. Так же открыть сам журнал можно командой в терминале (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>win+r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eventvwr.msc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. с левой стороны будут 3 журнала но как правило используется виндовс журнал. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Это служба каталогов разработанная виндовс для управления доменной сетью.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Её возможности заключаются в создании единой сети , централизованном управлении и администрировании с использованием групповой политики.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.1 Служба каталогов </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Active Directory, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>возможности, применение.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>пакеты устанавливаются с помощью</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">например 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sudo yum install  название пакета.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>посмотреть можно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> в логах</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, логи находятся по пути </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/var/log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>лог - Dpkg.log только в системах дебиан.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) Просмотр логов можно проводить с помощью текстовых редакторов. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nano, vi,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Joe, medit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">программа запускается если прописать её название, иногда добавляют параметр, но на некоторых ОС, некоторые программы можно запустить только прописав путь к файла и далее название. Запуск программы в фоне осуществляется так, название программы &amp;. Скрипты запускаеются несколько иначе, для начала необходимо указать название программы которая откроет файл с нужным расширением, например, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>python3 python.py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bash testfile.sh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. и так далее.  Некоторые программы требуют запуск от имени администратора, для этого используем команду </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sudo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">консоль grub </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">находится по пути </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/boot/grub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Так же необходимо подгрузить не достающие модули, после чего можно спокойно работать grub. Ls - просмотр файлов и тд . Загрузка модулей - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(insmod ext2) (insmod normal) 
+normal</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3766,7 +4899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3831,6 +4964,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6215,8 +7351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8253,13 +9389,13 @@
     <row r="141" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C141" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -8268,10 +9404,10 @@
     <row r="142" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>373</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -8281,10 +9417,10 @@
     <row r="143" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -8294,10 +9430,10 @@
     <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -8307,13 +9443,13 @@
     <row r="145" spans="1:7" ht="322.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -8322,10 +9458,10 @@
     <row r="146" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -8344,10 +9480,10 @@
     <row r="148" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="22" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -8356,7 +9492,7 @@
     </row>
     <row r="149" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -8368,10 +9504,10 @@
     <row r="150" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>390</v>
+        <v>416</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>415</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -8381,13 +9517,13 @@
     <row r="151" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -8396,44 +9532,44 @@
     <row r="152" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="C152" s="23" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="G152" s="25" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>397</v>
+        <v>406</v>
+      </c>
+      <c r="D153" s="26" t="s">
+        <v>407</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -8445,41 +9581,63 @@
     <row r="155" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C155" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="D155" s="1" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
+      <c r="A156" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="B156" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
+        <v>402</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D156" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="E156" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="F156" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="G156" s="25" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="157" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
+        <v>395</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="D157" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="E157" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="F157" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="G157" s="26" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
@@ -8745,12 +9903,13 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G152" r:id="rId1" xr:uid="{06ACBFED-3251-41FF-906E-D29403F746C6}"/>
+    <hyperlink ref="G156" r:id="rId2" xr:uid="{6A06202C-1B2E-42A5-A3B5-33C14EB8435A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/training_linux.xlsx
+++ b/training_linux.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerom\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34AE135-4F3F-49BF-8CBF-B9F17F0E7896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421732E0-BE4D-42CB-89D7-570A55A662A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="424">
   <si>
     <t>Название команды</t>
   </si>
@@ -4190,53 +4190,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> это продукт для обмена сообщений. . Поиск </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Start-MailboxSearch "текст"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> На </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Powershel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">логи хранятся по адресу </t>
     </r>
     <r>
@@ -4676,18 +4629,79 @@
       <t>(insmod ext2) (insmod normal) 
 normal</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Почтовый сервер, это продукт для обмена сообщений. . Поиск </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Start-MailboxSearch "текст"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> На </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powershel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>Порт протокол</t>
+  </si>
+  <si>
+    <t>Сетевые протоколы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4897,7 +4911,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4910,10 +4924,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4922,32 +4936,32 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4963,10 +4977,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7067,6 +7081,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1390650</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>4826783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88912829-2CE2-4C89-82B5-F4275B8B697C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="148094700"/>
+          <a:ext cx="5781675" cy="4826783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>3457575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Рисунок 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69426EA3-4010-4D72-A6CD-BB8C8B46912D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="152952450"/>
+          <a:ext cx="4610100" cy="3457575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7351,8 +7459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9392,7 +9500,7 @@
         <v>374</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>372</v>
@@ -9420,7 +9528,7 @@
         <v>376</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -9433,7 +9541,7 @@
         <v>377</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -9461,7 +9569,7 @@
         <v>381</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -9483,7 +9591,7 @@
         <v>382</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -9504,10 +9612,10 @@
     <row r="150" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -9517,10 +9625,10 @@
     <row r="151" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>384</v>
@@ -9535,16 +9643,16 @@
         <v>409</v>
       </c>
       <c r="C152" s="23" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>386</v>
       </c>
       <c r="E152" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="G152" s="25" t="s">
         <v>388</v>
@@ -9639,8 +9747,10 @@
         <v>392</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
+    <row r="158" spans="1:7" ht="382.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -9648,8 +9758,10 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
+    <row r="159" spans="1:7" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>

--- a/training_linux.xlsx
+++ b/training_linux.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerom\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421732E0-BE4D-42CB-89D7-570A55A662A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147F6A8F-259E-411E-8670-93220AD1BD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="432">
   <si>
     <t>Название команды</t>
   </si>
@@ -4682,6 +4682,216 @@
   </si>
   <si>
     <t>Сетевые протоколы</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">так же можно сразу создавать ветку папок прописав </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mkdir -p test/test1/test2/test3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uptime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - полезная инфа про систему, Время на сервере, время работы сервера, сколько юзеров на сервере залогинилось, и общая загрузка  сервера 1минута,5 минут и 15 минут</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>which</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'название команды или команды' покажет путь</t>
+    </r>
+  </si>
+  <si>
+    <t>Общая информация о системе</t>
+  </si>
+  <si>
+    <t>hostnamectl</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">текстовый редактор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>что бы редактировать нужно зайти в Insert mod для этого нажать</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>что бы сохранить нужно внизу написать</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,стереть текст только </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>del</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, что бы выйти из Insert mod нажмите </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">esc ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">что бы выйти нужно написать </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , или</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :wq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4913,7 +5123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4981,6 +5191,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6134,15 +6347,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:colOff>3133725</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3305175</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1704975</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>1532034</xdr:rowOff>
+      <xdr:rowOff>1522509</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6171,7 +6384,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3838575" y="59893200"/>
+          <a:off x="5695950" y="53216175"/>
           <a:ext cx="1924050" cy="1522509"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7459,8 +7672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="G158" sqref="G158"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7730,7 +7943,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -7740,7 +7953,9 @@
       <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>424</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -8242,7 +8457,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>127</v>
       </c>
@@ -8253,7 +8468,9 @@
         <v>129</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="E49" s="27" t="s">
+        <v>425</v>
+      </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
@@ -8268,7 +8485,9 @@
         <v>131</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="E50" s="27" t="s">
+        <v>426</v>
+      </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
@@ -9769,18 +9988,28 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
+    <row r="160" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+    <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>428</v>
+      </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>

--- a/training_linux.xlsx
+++ b/training_linux.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerom\OneDrive\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49175763-927A-467E-BEDD-C19F1DAEB4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="39975" yWindow="165" windowWidth="25785" windowHeight="31410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="451">
-  <si>
-    <t xml:space="preserve">Название команды</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="454">
+  <si>
+    <t>Название команды</t>
   </si>
   <si>
     <t>Команда</t>
@@ -33,7 +40,7 @@
     <t>Особенности</t>
   </si>
   <si>
-    <t xml:space="preserve">Важные снимки</t>
+    <t>Важные снимки</t>
   </si>
   <si>
     <t>Дата-время</t>
@@ -42,7 +49,7 @@
     <t>date</t>
   </si>
   <si>
-    <t xml:space="preserve">Выводит время и дату</t>
+    <t>Выводит время и дату</t>
   </si>
   <si>
     <t>Календарь</t>
@@ -51,52 +58,52 @@
     <t>cal</t>
   </si>
   <si>
-    <t xml:space="preserve">Выводит календарь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Место на диске</t>
+    <t>Выводит календарь</t>
+  </si>
+  <si>
+    <t>Место на диске</t>
   </si>
   <si>
     <t>df</t>
   </si>
   <si>
-    <t xml:space="preserve">Можно увидеть свободное место на диске</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Место в оперативке</t>
+    <t>Можно увидеть свободное место на диске</t>
+  </si>
+  <si>
+    <t>Место в оперативке</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t xml:space="preserve">Можно увидеть свободное место в оперативнорй памяти</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Завершение сеанса</t>
+    <t>Можно увидеть свободное место в оперативнорй памяти</t>
+  </si>
+  <si>
+    <t>Завершение сеанса</t>
   </si>
   <si>
     <t>exit</t>
   </si>
   <si>
-    <t xml:space="preserve">Завершение сеанса работы с терминалом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Текущий каталог</t>
+    <t>Завершение сеанса работы с терминалом</t>
+  </si>
+  <si>
+    <t>Текущий каталог</t>
   </si>
   <si>
     <t>pwd</t>
   </si>
   <si>
-    <t xml:space="preserve">Выводит название текущего каталога</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Переход в др. каталог</t>
+    <t>Выводит название текущего каталога</t>
+  </si>
+  <si>
+    <t>Переход в др. каталог</t>
   </si>
   <si>
     <t>cd</t>
   </si>
   <si>
-    <t xml:space="preserve">Выполняет переход в другой каталог (cd /usr/bin)</t>
+    <t>Выполняет переход в другой каталог (cd /usr/bin)</t>
   </si>
   <si>
     <t xml:space="preserve">Абсолютный путь, Относительный,Родительский каталог по отношению к рабочему. стр. 43-44 </t>
@@ -112,7 +119,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">cd 11/22/33/44</t>
+      <t>cd 11/22/33/44</t>
     </r>
     <r>
       <rPr>
@@ -148,7 +155,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">возращение на шаг назад '..'</t>
+      <t>возращение на шаг назад '..'</t>
     </r>
     <r>
       <rPr>
@@ -166,11 +173,11 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">cd /</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Список файлов в каталоге</t>
+      <t>cd /</t>
+    </r>
+  </si>
+  <si>
+    <t>Список файлов в каталоге</t>
   </si>
   <si>
     <r>
@@ -189,16 +196,16 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">или (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ls -l</t>
+      <t>или (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ls -l</t>
     </r>
     <r>
       <rPr>
@@ -211,7 +218,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Выводит список содержимых файлов в каталоге (ls или ls /"каталог" или ls  ~ /"каталог" в данном случае выведет и домашний каталог и указаный )</t>
+    <t>Выводит список содержимых файлов в каталоге (ls или ls /"каталог" или ls  ~ /"каталог" в данном случае выведет и домашний каталог и указаный )</t>
   </si>
   <si>
     <r>
@@ -238,7 +245,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">ls -lt</t>
+      <t>ls -lt</t>
     </r>
     <r>
       <rPr>
@@ -255,7 +262,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">ls -lt --reverse</t>
+      <t>ls -lt --reverse</t>
     </r>
     <r>
       <rPr>
@@ -267,13 +274,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Тип файла</t>
+    <t>Тип файла</t>
   </si>
   <si>
     <t>file</t>
   </si>
   <si>
-    <t xml:space="preserve">Определяет тип файла</t>
+    <t>Определяет тип файла</t>
   </si>
   <si>
     <r>
@@ -287,7 +294,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">file picture.jpg</t>
+      <t>file picture.jpg</t>
     </r>
     <r>
       <rPr>
@@ -301,7 +308,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Войти в файла</t>
+    <t>Войти в файла</t>
   </si>
   <si>
     <t>less</t>
@@ -317,7 +324,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">less имя_файла</t>
+      <t>less имя_файла</t>
     </r>
   </si>
   <si>
@@ -336,7 +343,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Просмотр файла</t>
+    <t>Просмотр файла</t>
   </si>
   <si>
     <t>cat</t>
@@ -352,29 +359,29 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">cat имя_файла</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Обнвоить окно</t>
+      <t>cat имя_файла</t>
+    </r>
+  </si>
+  <si>
+    <t>Обнвоить окно</t>
   </si>
   <si>
     <t>reset</t>
   </si>
   <si>
-    <t xml:space="preserve">ЕСЛИ НАРУШИЛИ РАБОТУ ОКНА ТЕРМИНАЛА  НУЖНО ПРОПИСАТЬ RESET</t>
+    <t>ЕСЛИ НАРУШИЛИ РАБОТУ ОКНА ТЕРМИНАЛА  НУЖНО ПРОПИСАТЬ RESET</t>
   </si>
   <si>
     <t>ПУТЕШЕСТВИЕ</t>
   </si>
   <si>
-    <t xml:space="preserve">Копирование файла</t>
+    <t>Копирование файла</t>
   </si>
   <si>
     <t>cp</t>
   </si>
   <si>
-    <t xml:space="preserve">копирует файлы и каталоги</t>
+    <t>копирует файлы и каталоги</t>
   </si>
   <si>
     <t>перемещает/переименовывает</t>
@@ -383,19 +390,19 @@
     <t>mv</t>
   </si>
   <si>
-    <t xml:space="preserve">перемещает/переименовывает файлы и каталоги;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Если пишем mv file1 file 2 то произойдёт перименовывание в том случае если в репозитории нету file2, а если написать mv file1 home/file2  то произойдёт пермещение т.к. указан путь.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Создать каталог</t>
+    <t>перемещает/переименовывает файлы и каталоги;</t>
+  </si>
+  <si>
+    <t>Если пишем mv file1 file 2 то произойдёт перименовывание в том случае если в репозитории нету file2, а если написать mv file1 home/file2  то произойдёт пермещение т.к. указан путь.</t>
+  </si>
+  <si>
+    <t>Создать каталог</t>
   </si>
   <si>
     <t>mkdir</t>
   </si>
   <si>
-    <t xml:space="preserve">Создаёт каталоги</t>
+    <t>Создаёт каталоги</t>
   </si>
   <si>
     <r>
@@ -408,26 +415,26 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">mkdir -p test/test1/test2/test3</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Создание ссылок</t>
+      <t>mkdir -p test/test1/test2/test3</t>
+    </r>
+  </si>
+  <si>
+    <t>Создание ссылок</t>
   </si>
   <si>
     <t>ln</t>
   </si>
   <si>
-    <t xml:space="preserve">Создаёт жесткие и символические ссылки In -s</t>
+    <t>Создаёт жесткие и символические ссылки In -s</t>
   </si>
   <si>
     <t>Удаление</t>
   </si>
   <si>
-    <t xml:space="preserve">rm -r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Удаляет дериктории или файлы</t>
+    <t>rm -r</t>
+  </si>
+  <si>
+    <t>Удаляет дериктории или файлы</t>
   </si>
   <si>
     <t xml:space="preserve">Создание файла </t>
@@ -436,10 +443,10 @@
     <t>touch</t>
   </si>
   <si>
-    <t xml:space="preserve">Создаёт фаил с разным расширением</t>
-  </si>
-  <si>
-    <t xml:space="preserve">установка файла</t>
+    <t>Создаёт фаил с разным расширением</t>
+  </si>
+  <si>
+    <t>установка файла</t>
   </si>
   <si>
     <r>
@@ -471,58 +478,58 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">установка программ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пример установка приложения телеграм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. sudo add-repository ppa:atareao/telegram   2. sudo apt update   3. sudo apt (-y) install telegram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Описание команды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whatis **</t>
-  </si>
-  <si>
-    <t xml:space="preserve">описывает что делает команда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аналог man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открытие и редактирвоание файла</t>
+    <t>установка программ</t>
+  </si>
+  <si>
+    <t>Пример установка приложения телеграм</t>
+  </si>
+  <si>
+    <t>1. sudo add-repository ppa:atareao/telegram   2. sudo apt update   3. sudo apt (-y) install telegram</t>
+  </si>
+  <si>
+    <t>Описание команды</t>
+  </si>
+  <si>
+    <t>whatis **</t>
+  </si>
+  <si>
+    <t>описывает что делает команда</t>
+  </si>
+  <si>
+    <t>Аналог man</t>
+  </si>
+  <si>
+    <t>Открытие и редактирвоание файла</t>
   </si>
   <si>
     <t>nano</t>
   </si>
   <si>
-    <t xml:space="preserve">открывает фаил и редактирует</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аналог GEDIT более старый , есть везде. PICO,VIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">От прав администратора</t>
+    <t>открывает фаил и редактирует</t>
+  </si>
+  <si>
+    <t>аналог GEDIT более старый , есть везде. PICO,VIM</t>
+  </si>
+  <si>
+    <t>От прав администратора</t>
   </si>
   <si>
     <t>sudo</t>
   </si>
   <si>
-    <t xml:space="preserve">запускает действие от прав администратора</t>
+    <t>запускает действие от прав администратора</t>
   </si>
   <si>
     <t xml:space="preserve">удаление программы </t>
   </si>
   <si>
-    <t xml:space="preserve">apt remove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Позволяет удалять приложение, рекомендуется использовать вместе с sudo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Переход между пользователями</t>
+    <t>apt remove</t>
+  </si>
+  <si>
+    <t>Позволяет удалять приложение, рекомендуется использовать вместе с sudo</t>
+  </si>
+  <si>
+    <t>Переход между пользователями</t>
   </si>
   <si>
     <r>
@@ -563,20 +570,20 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">к админу 1 вариант к другому 2-ой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">изменение прав доступа к файлу</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sudo chown</t>
+    <t>к админу 1 вариант к другому 2-ой</t>
+  </si>
+  <si>
+    <t>изменение прав доступа к файлу</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sudo chown</t>
     </r>
     <r>
       <rPr>
@@ -589,20 +596,20 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Позволяет изменять права доступа, обратить внимание на команду</t>
-  </si>
-  <si>
-    <t xml:space="preserve">поиск программы</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">apt policy</t>
+    <t>Позволяет изменять права доступа, обратить внимание на команду</t>
+  </si>
+  <si>
+    <t>поиск программы</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apt policy</t>
     </r>
     <r>
       <rPr>
@@ -615,14 +622,14 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Позволяет искать данную программу в системе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">открыть программу</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">просто прописать название например(</t>
+    <t>Позволяет искать данную программу в системе</t>
+  </si>
+  <si>
+    <t>открыть программу</t>
+  </si>
+  <si>
+    <r>
+      <t>просто прописать название например(</t>
     </r>
     <r>
       <rPr>
@@ -676,17 +683,17 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">поиск файла</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">find . -type d</t>
+    <t>поиск файла</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>find . -type d</t>
     </r>
     <r>
       <rPr>
@@ -767,14 +774,14 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(Не важно название, главное с расщирением txt)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Внимание на команду, использовать * почти как угодно</t>
-  </si>
-  <si>
-    <t xml:space="preserve">поиск фраз</t>
+      <t>(Не важно название, главное с расщирением txt)</t>
+    </r>
+  </si>
+  <si>
+    <t>Внимание на команду, использовать * почти как угодно</t>
+  </si>
+  <si>
+    <t>поиск фраз</t>
   </si>
   <si>
     <r>
@@ -797,20 +804,20 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Позволяет искать похожие фразы или слова в данном файле</t>
-  </si>
-  <si>
-    <t xml:space="preserve">выключение системы</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sudo shutdown -P(-P</t>
+    <t>Позволяет искать похожие фразы или слова в данном файле</t>
+  </si>
+  <si>
+    <t>выключение системы</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sudo shutdown -P(-P</t>
     </r>
     <r>
       <rPr>
@@ -841,7 +848,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">позволяет выключить компьютер моментально или отложенно</t>
+    <t>позволяет выключить компьютер моментально или отложенно</t>
   </si>
   <si>
     <r>
@@ -865,7 +872,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">pkill или xkill</t>
+      <t>pkill или xkill</t>
     </r>
     <r>
       <rPr>
@@ -901,7 +908,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">название программы</t>
+      <t>название программы</t>
     </r>
     <r>
       <rPr>
@@ -914,7 +921,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">диспетчер задач</t>
+    <t>диспетчер задач</t>
   </si>
   <si>
     <t>top</t>
@@ -962,29 +969,29 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">free -h</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">показывает сколько доступно памяти и сколько занято</t>
-  </si>
-  <si>
-    <t xml:space="preserve">заущенные программы</t>
+      <t>free -h</t>
+    </r>
+  </si>
+  <si>
+    <t>показывает сколько доступно памяти и сколько занято</t>
+  </si>
+  <si>
+    <t>заущенные программы</t>
   </si>
   <si>
     <t>ps</t>
   </si>
   <si>
-    <t xml:space="preserve">показывает какие программы запущены</t>
-  </si>
-  <si>
-    <t xml:space="preserve">запущенные программый у всех пользователе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ps -aux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">показывает совершенно все процессы у всех пользователей которые запущены</t>
+    <t>показывает какие программы запущены</t>
+  </si>
+  <si>
+    <t>запущенные программый у всех пользователе</t>
+  </si>
+  <si>
+    <t>ps -aux</t>
+  </si>
+  <si>
+    <t>показывает совершенно все процессы у всех пользователей которые запущены</t>
   </si>
   <si>
     <r>
@@ -997,7 +1004,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">grep (ps -aux | grep (фраза ))</t>
+      <t>grep (ps -aux | grep (фраза ))</t>
     </r>
     <r>
       <rPr>
@@ -1016,17 +1023,17 @@
     <t>tree</t>
   </si>
   <si>
-    <t xml:space="preserve">создание архива из папки</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">tar cf</t>
+    <t>создание архива из папки</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tar cf</t>
     </r>
     <r>
       <rPr>
@@ -1053,7 +1060,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">) указать фаил</t>
+      <t>) указать фаил</t>
     </r>
   </si>
   <si>
@@ -1080,20 +1087,20 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Для ЛИНУКСА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">просмотр архива</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">tar tf</t>
+    <t>Для ЛИНУКСА</t>
+  </si>
+  <si>
+    <t>просмотр архива</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tar tf</t>
     </r>
     <r>
       <rPr>
@@ -1124,7 +1131,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Позволяет узнать что находится в архиве</t>
+    <t>Позволяет узнать что находится в архиве</t>
   </si>
   <si>
     <t>разархивировать</t>
@@ -1137,16 +1144,16 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">tar xvf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(название файла</t>
+      <t>tar xvf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(название файла</t>
     </r>
     <r>
       <rPr>
@@ -1168,19 +1175,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Позволяет разархивировать тар файл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XZ сжатие папки .tar</t>
+    <t>Позволяет разархивировать тар файл</t>
+  </si>
+  <si>
+    <t>XZ сжатие папки .tar</t>
   </si>
   <si>
     <t>xz</t>
   </si>
   <si>
-    <t xml:space="preserve">сжимает архивы в которых могут быть файлы и папки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">разархивировать  XZ</t>
+    <t>сжимает архивы в которых могут быть файлы и папки</t>
+  </si>
+  <si>
+    <t>разархивировать  XZ</t>
   </si>
   <si>
     <r>
@@ -1199,14 +1206,14 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">название файла с расширением</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">даёт возможность разархивировать сжатый файл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архивировать в GZIP, BZIP2</t>
+      <t>название файла с расширением</t>
+    </r>
+  </si>
+  <si>
+    <t>даёт возможность разархивировать сжатый файл</t>
+  </si>
+  <si>
+    <t>Архивировать в GZIP, BZIP2</t>
   </si>
   <si>
     <r>
@@ -1225,7 +1232,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">название файла с расширением</t>
+      <t>название файла с расширением</t>
     </r>
   </si>
   <si>
@@ -1249,7 +1256,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">разархивировать GZIP, BZIP2</t>
+    <t>разархивировать GZIP, BZIP2</t>
   </si>
   <si>
     <r>
@@ -1288,21 +1295,21 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">тоже самое но лучше</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Архивация ZIP</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">zip -r</t>
+      <t>тоже самое но лучше</t>
+    </r>
+  </si>
+  <si>
+    <t>Архивация ZIP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zip -r</t>
     </r>
     <r>
       <rPr>
@@ -1315,13 +1322,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ХУДШИЙ АРХИВАТОР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">для ВИНДОВСА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разархивировать ZIP</t>
+    <t>ХУДШИЙ АРХИВАТОР</t>
+  </si>
+  <si>
+    <t>для ВИНДОВСА</t>
+  </si>
+  <si>
+    <t>Разархивировать ZIP</t>
   </si>
   <si>
     <r>
@@ -1344,7 +1351,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">скачать фаил из интернета</t>
+    <t>скачать фаил из интернета</t>
   </si>
   <si>
     <r>
@@ -1363,30 +1370,30 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(url адрес)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">утсановка программы</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sudo dpkg  -i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(-i означает инсталл) название</t>
+      <t>(url адрес)</t>
+    </r>
+  </si>
+  <si>
+    <t>утсановка программы</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sudo dpkg  -i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(-i означает инсталл) название</t>
     </r>
   </si>
   <si>
@@ -1396,19 +1403,19 @@
     <t>google-chrome</t>
   </si>
   <si>
-    <t xml:space="preserve">например google-chrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">просто прописать название программы до версии</t>
+    <t>например google-chrome</t>
+  </si>
+  <si>
+    <t>просто прописать название программы до версии</t>
   </si>
   <si>
     <t>пинг</t>
   </si>
   <si>
-    <t xml:space="preserve">ping сайт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">отслеживает пинг с сайтом, что бы выйти ctrl+c</t>
+    <t>ping сайт</t>
+  </si>
+  <si>
+    <t>отслеживает пинг с сайтом, что бы выйти ctrl+c</t>
   </si>
   <si>
     <r>
@@ -1431,17 +1438,17 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">пинг ограниченное количество</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ping -c 10</t>
+    <t>пинг ограниченное количество</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ping -c 10</t>
     </r>
     <r>
       <rPr>
@@ -1454,7 +1461,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">пропингует сайт нужное колличество раз</t>
+    <t>пропингует сайт нужное колличество раз</t>
   </si>
   <si>
     <r>
@@ -1477,19 +1484,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">проверка айпиадресов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host сайт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">проверяет сам адрес, ipV6 и домены</t>
-  </si>
-  <si>
-    <t xml:space="preserve">проверка соединений на данный момент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">netstat или netstat | unix</t>
+    <t>проверка айпиадресов</t>
+  </si>
+  <si>
+    <t>host сайт</t>
+  </si>
+  <si>
+    <t>проверяет сам адрес, ipV6 и домены</t>
+  </si>
+  <si>
+    <t>проверка соединений на данный момент</t>
+  </si>
+  <si>
+    <t>netstat или netstat | unix</t>
   </si>
   <si>
     <r>
@@ -1512,7 +1519,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">узнать инф. Нашего пк по сети</t>
+    <t>узнать инф. Нашего пк по сети</t>
   </si>
   <si>
     <t>ifconfig</t>
@@ -1528,17 +1535,17 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">ip addr show</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">информация по роутеры</t>
+      <t>ip addr show</t>
+    </r>
+  </si>
+  <si>
+    <t>информация по роутеры</t>
   </si>
   <si>
     <t>rout</t>
   </si>
   <si>
-    <t xml:space="preserve">подключение к web серверу ssh</t>
+    <t>подключение к web серверу ssh</t>
   </si>
   <si>
     <t>ssh</t>
@@ -1554,14 +1561,14 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">sudo apt install openshh-server</t>
+      <t>sudo apt install openshh-server</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">открыть порт </t>
   </si>
   <si>
-    <t xml:space="preserve">sudo ufw allow 22</t>
+    <t>sudo ufw allow 22</t>
   </si>
   <si>
     <r>
@@ -1602,16 +1609,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">просмотр всех пользователей</t>
+    <t>просмотр всех пользователей</t>
   </si>
   <si>
     <t>w</t>
   </si>
   <si>
-    <t xml:space="preserve">создание bash скрипта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nano bash_script-sh</t>
+    <t>создание bash скрипта</t>
+  </si>
+  <si>
+    <t>nano bash_script-sh</t>
   </si>
   <si>
     <r>
@@ -1628,31 +1635,31 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Сам скрипт</t>
+    <t>Сам скрипт</t>
   </si>
   <si>
     <t>результат</t>
   </si>
   <si>
-    <t xml:space="preserve">запуск скрипта bash</t>
+    <t>запуск скрипта bash</t>
   </si>
   <si>
     <t>bash</t>
   </si>
   <si>
-    <t xml:space="preserve">всегда надо писать bash в начале . ДАЛЕЕ ПРИМЕРЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">знакомтво с кодом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выведит на экран значение string, а именно hellо: ЗАМЕЧАНИЕ ,КОМАНДЫ ПИШУТСЯ В `` ТИЛЬДЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0 хранит в себе название системы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сложение с синтаксисом баш</t>
+    <t>всегда надо писать bash в начале . ДАЛЕЕ ПРИМЕРЫ</t>
+  </si>
+  <si>
+    <t>знакомтво с кодом</t>
+  </si>
+  <si>
+    <t>Выведит на экран значение string, а именно hellо: ЗАМЕЧАНИЕ ,КОМАНДЫ ПИШУТСЯ В `` ТИЛЬДЕ</t>
+  </si>
+  <si>
+    <t>$0 хранит в себе название системы</t>
+  </si>
+  <si>
+    <t>сложение с синтаксисом баш</t>
   </si>
   <si>
     <r>
@@ -1669,10 +1676,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Чтобы спросить у человека параметр, нужно указывать $1 $2 $3  и т.д. Любые действия выполняются в скобках $((…....)). Далее выводим командой echo "Результат: $res" _____ЕСЛИ НЕ УКАЗАТЬ ПАРАМЕТРЫ ПОСЛЕ ВЫПОЛНЕНИЯ КОМАНДЫ ТО ВЫПОЛНИТСЯ С 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">запросить переменную у пользователя</t>
+    <t>Чтобы спросить у человека параметр, нужно указывать $1 $2 $3  и т.д. Любые действия выполняются в скобках $((…....)). Далее выводим командой echo "Результат: $res" _____ЕСЛИ НЕ УКАЗАТЬ ПАРАМЕТРЫ ПОСЛЕ ВЫПОЛНЕНИЯ КОМАНДЫ ТО ВЫПОЛНИТСЯ С 0</t>
+  </si>
+  <si>
+    <t>запросить переменную у пользователя</t>
   </si>
   <si>
     <r>
@@ -1691,27 +1698,27 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">"Чило:" название перменной</t>
+      <t>"Чило:" название перменной</t>
     </r>
   </si>
   <si>
     <t>Условия</t>
   </si>
   <si>
-    <t xml:space="preserve">if elif else</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Закрытие fi</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; then</t>
+    <t>if elif else</t>
+  </si>
+  <si>
+    <t>Закрытие fi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; then</t>
     </r>
     <r>
       <rPr>
@@ -1724,7 +1731,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Цыклы FOR</t>
+    <t>Цыклы FOR</t>
   </si>
   <si>
     <r>
@@ -1741,7 +1748,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Цыклы while</t>
+    <t>Цыклы while</t>
   </si>
   <si>
     <t xml:space="preserve"> (-lt меньше , -gt больше)</t>
@@ -1750,7 +1757,7 @@
     <t>функции</t>
   </si>
   <si>
-    <t xml:space="preserve">внизу дописал DIVIDE 10 2 и DIVIDE 10 0</t>
+    <t>внизу дописал DIVIDE 10 2 и DIVIDE 10 0</t>
   </si>
   <si>
     <t>УТИЛИТЫ</t>
@@ -1759,13 +1766,13 @@
     <t>СЕТЕВЫЕ</t>
   </si>
   <si>
-    <t xml:space="preserve">Установленное оборудование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sudo apt install lshw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Покажет какое оборудование устновлено на пк</t>
+    <t>Установленное оборудование</t>
+  </si>
+  <si>
+    <t>sudo apt install lshw</t>
+  </si>
+  <si>
+    <t>Покажет какое оборудование устновлено на пк</t>
   </si>
   <si>
     <r>
@@ -1778,7 +1785,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">-class network , красным конкретное устройство</t>
+      <t>-class network , красным конкретное устройство</t>
     </r>
   </si>
   <si>
@@ -1792,32 +1799,32 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">ping www.*****.ru</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(com и т.д.)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">остановка ctrl+c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пропингует сайт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сведенья о маршрутизаторах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">traceroute www.******.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">traceroute даёт сведенья об ip адресах маршрутизаторов через которые проходят данные от моей системы до конечной</t>
+      <t>ping www.*****.ru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(com и т.д.)</t>
+    </r>
+  </si>
+  <si>
+    <t>остановка ctrl+c</t>
+  </si>
+  <si>
+    <t>Пропингует сайт</t>
+  </si>
+  <si>
+    <t>Сведенья о маршрутизаторах</t>
+  </si>
+  <si>
+    <t>traceroute www.******.com</t>
+  </si>
+  <si>
+    <t>traceroute даёт сведенья об ip адресах маршрутизаторов через которые проходят данные от моей системы до конечной</t>
   </si>
   <si>
     <r>
@@ -1848,16 +1855,16 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">traceroute -I www.******.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) "</t>
+      <t>traceroute -I www.******.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) "</t>
     </r>
     <r>
       <rPr>
@@ -1874,11 +1881,11 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Так же можем посмотреть через какой IP провайдер осуществляет доступ к лобальной сети</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Общая информация о сети</t>
+      <t>Так же можем посмотреть через какой IP провайдер осуществляет доступ к лобальной сети</t>
+    </r>
+  </si>
+  <si>
+    <t>Общая информация о сети</t>
   </si>
   <si>
     <r>
@@ -1924,18 +1931,18 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">ip a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">eth0 (enp0s3)</t>
+      <t>ip a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eth0 (enp0s3)</t>
     </r>
     <r>
       <rPr>
@@ -1989,7 +1996,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Важно Названия будут немного изменены в зависимости от самого линукса</t>
+      <t>Важно Названия будут немного изменены в зависимости от самого линукса</t>
     </r>
   </si>
   <si>
@@ -2106,20 +2113,20 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Таблица маршрутизации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip rout show</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">default via 10.0.1.1</t>
+    <t>Таблица маршрутизации</t>
+  </si>
+  <si>
+    <t>ip rout show</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>default via 10.0.1.1</t>
     </r>
     <r>
       <rPr>
@@ -2137,7 +2144,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">link src 10.0.1.19</t>
+      <t>link src 10.0.1.19</t>
     </r>
     <r>
       <rPr>
@@ -2168,17 +2175,17 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Отключение и включение интернета</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ip link set</t>
+    <t>Отключение и включение интернета</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ip link set</t>
     </r>
     <r>
       <rPr>
@@ -2214,7 +2221,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">down или up</t>
+      <t>down или up</t>
     </r>
     <r>
       <rPr>
@@ -2241,7 +2248,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">сменить IP</t>
+    <t>сменить IP</t>
   </si>
   <si>
     <r>
@@ -2350,11 +2357,11 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(или любой другой)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Так же можно изменить любой сетевой параметр маску и тд</t>
+      <t>(или любой другой)</t>
+    </r>
+  </si>
+  <si>
+    <t>Так же можно изменить любой сетевой параметр маску и тд</t>
   </si>
   <si>
     <r>
@@ -2373,16 +2380,16 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">если решили похулиганить.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Заметание следов</t>
+      <t>если решили похулиганить.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Заметание следов</t>
     </r>
   </si>
   <si>
@@ -2414,7 +2421,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">ifconfig wlan0</t>
+      <t>ifconfig wlan0</t>
     </r>
     <r>
       <rPr>
@@ -2432,7 +2439,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">hw ether</t>
+      <t>hw ether</t>
     </r>
     <r>
       <rPr>
@@ -2459,7 +2466,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(От болды)</t>
+      <t>(От болды)</t>
     </r>
   </si>
   <si>
@@ -2477,7 +2484,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Контроль за состоянием сети</t>
+    <t>Контроль за состоянием сети</t>
   </si>
   <si>
     <t xml:space="preserve">netstat </t>
@@ -2496,7 +2503,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">netstat -i</t>
+      <t>netstat -i</t>
     </r>
   </si>
   <si>
@@ -2552,7 +2559,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">-ошибки,главное что бы не больше 5%(иначе говорит о проблеме соединения или сетевой картой)</t>
+      <t>-ошибки,главное что бы не больше 5%(иначе говорит о проблеме соединения или сетевой картой)</t>
     </r>
   </si>
   <si>
@@ -2565,16 +2572,16 @@
     <t>https://agladky.ru/blog/git-cheat-sheet/</t>
   </si>
   <si>
-    <t xml:space="preserve">установка GIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sudo apt-get install git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">создание репозитория на гите через сайт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">создание нового репозитория git</t>
+    <t>установка GIT</t>
+  </si>
+  <si>
+    <t>sudo apt-get install git</t>
+  </si>
+  <si>
+    <t>создание репозитория на гите через сайт</t>
+  </si>
+  <si>
+    <t>создание нового репозитория git</t>
   </si>
   <si>
     <r>
@@ -2599,26 +2606,26 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">это первая команда которую необходимо запустить при запуске нового проекта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сохранение git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git add (.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">делает все файлы готовымит для комита</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">git add [файл]</t>
+    <t>это первая команда которую необходимо запустить при запуске нового проекта</t>
+  </si>
+  <si>
+    <t>сохранение git</t>
+  </si>
+  <si>
+    <t>git add (.)</t>
+  </si>
+  <si>
+    <t>делает все файлы готовымит для комита</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git add [файл]</t>
     </r>
     <r>
       <rPr>
@@ -2636,7 +2643,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">git add '*.txt'</t>
+      <t>git add '*.txt'</t>
     </r>
     <r>
       <rPr>
@@ -2649,26 +2656,26 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">проверка статуса git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">проверяет все файлы готовымит для комита</t>
-  </si>
-  <si>
-    <t xml:space="preserve">комитим файл с коментарием</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">git commit -m</t>
+    <t>проверка статуса git</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>проверяет все файлы готовымит для комита</t>
+  </si>
+  <si>
+    <t>комитим файл с коментарием</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git commit -m</t>
     </r>
     <r>
       <rPr>
@@ -2704,7 +2711,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">добавить сылку куда загружать файл</t>
+    <t>добавить сылку куда загружать файл</t>
   </si>
   <si>
     <r>
@@ -2723,54 +2730,54 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(ссылка на репозиторий в гите)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">добавление user.name и user.email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git config --global user.name "Ivan"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git config --global user.email "neromail08@mail.ru"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name установит имя которое будет прикреплено к коммиту</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email установит емаил который будет прикреплён к комиту</t>
-  </si>
-  <si>
-    <t xml:space="preserve">обновлять ветку с таким же именем что и локальная при  изменениях</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git config --global push.default simple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Запушить текущую ветку в удалённую ветку</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git push</t>
-  </si>
-  <si>
-    <t xml:space="preserve">запушить афйл в новую ветку</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git push --set-upstream origin (имя новой ветки)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">переместиться в комите по времени</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git chekout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Необходимо скопировать номер комита(Хеш)  с гит хаба</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Например если зайти в репозиторий с комитами и просмотреть все комиты , далее скопировать номер комита и прописав команду</t>
+      <t>(ссылка на репозиторий в гите)</t>
+    </r>
+  </si>
+  <si>
+    <t>добавление user.name и user.email</t>
+  </si>
+  <si>
+    <t>git config --global user.name "Ivan"</t>
+  </si>
+  <si>
+    <t>git config --global user.email "neromail08@mail.ru"</t>
+  </si>
+  <si>
+    <t>name установит имя которое будет прикреплено к коммиту</t>
+  </si>
+  <si>
+    <t>email установит емаил который будет прикреплён к комиту</t>
+  </si>
+  <si>
+    <t>обновлять ветку с таким же именем что и локальная при  изменениях</t>
+  </si>
+  <si>
+    <t>git config --global push.default simple</t>
+  </si>
+  <si>
+    <t>Запушить текущую ветку в удалённую ветку</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>запушить афйл в новую ветку</t>
+  </si>
+  <si>
+    <t>git push --set-upstream origin (имя новой ветки)</t>
+  </si>
+  <si>
+    <t>переместиться в комите по времени</t>
+  </si>
+  <si>
+    <t>git chekout</t>
+  </si>
+  <si>
+    <t>Необходимо скопировать номер комита(Хеш)  с гит хаба</t>
+  </si>
+  <si>
+    <r>
+      <t>Например если зайти в репозиторий с комитами и просмотреть все комиты , далее скопировать номер комита и прописав команду</t>
     </r>
     <r>
       <rPr>
@@ -2802,41 +2809,41 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">git checout master(название ветки)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">проще говоря перемещение в времени по работе с репозиторием</t>
-  </si>
-  <si>
-    <t xml:space="preserve">переместить на текущее состояние</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git checout master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">внимание на п.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">если потерялись в пространстве</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Показывает в какой ветке мы находимся. На данный момент обучения создана одна ветка (master)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Если мы до этого переходили на какой то другой коммит и введём команду git branch, то увидим что находимся под конкретным комитом в ветке масте.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">откатить изменение файла если добавили через git add но не загрузили на git_hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git stash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Если мы отредактировали файл и добавили его в комит но не загрузили, то возможно откатить изменения файла на данном этапе</t>
+      <t>git checout master(название ветки)</t>
+    </r>
+  </si>
+  <si>
+    <t>проще говоря перемещение в времени по работе с репозиторием</t>
+  </si>
+  <si>
+    <t>переместить на текущее состояние</t>
+  </si>
+  <si>
+    <t>git checout master</t>
+  </si>
+  <si>
+    <t>внимание на п.88</t>
+  </si>
+  <si>
+    <t>если потерялись в пространстве</t>
+  </si>
+  <si>
+    <t>git branch</t>
+  </si>
+  <si>
+    <t>Показывает в какой ветке мы находимся. На данный момент обучения создана одна ветка (master)</t>
+  </si>
+  <si>
+    <t>Если мы до этого переходили на какой то другой коммит и введём команду git branch, то увидим что находимся под конкретным комитом в ветке масте.</t>
+  </si>
+  <si>
+    <t>откатить изменение файла если добавили через git add но не загрузили на git_hub</t>
+  </si>
+  <si>
+    <t>git stash</t>
+  </si>
+  <si>
+    <t>Если мы отредактировали файл и добавили его в комит но не загрузили, то возможно откатить изменения файла на данном этапе</t>
   </si>
   <si>
     <r>
@@ -2849,56 +2856,56 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">git status</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Учёба-тесты с гитом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-ий комит , тест залива</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Порядок залива обновлённых файлов с использованием комита в уже созданном репозитории</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.git add . Или название файла - по необходимости</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.git commit -m 'коментарий'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. git push origin (назвение ветки)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Что бы добавлятьи  прсомотривать</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git remote add origin (ссылка на репозиторий в гите) п.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git remote -v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">создание ветки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git branch (название ветки)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">перекулючение между ветками</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git checkout имя ветки</t>
+      <t>git status</t>
+    </r>
+  </si>
+  <si>
+    <t>Учёба-тесты с гитом</t>
+  </si>
+  <si>
+    <t>3-ий комит , тест залива</t>
+  </si>
+  <si>
+    <t>Порядок залива обновлённых файлов с использованием комита в уже созданном репозитории</t>
+  </si>
+  <si>
+    <t>1.git add . Или название файла - по необходимости</t>
+  </si>
+  <si>
+    <t>2.git commit -m 'коментарий'</t>
+  </si>
+  <si>
+    <t>3. git push origin (назвение ветки)</t>
+  </si>
+  <si>
+    <t>Что бы добавлятьи  прсомотривать</t>
+  </si>
+  <si>
+    <t>git remote add origin (ссылка на репозиторий в гите) п.84</t>
+  </si>
+  <si>
+    <t>git remote -v</t>
+  </si>
+  <si>
+    <t>создание ветки</t>
+  </si>
+  <si>
+    <t>git branch (название ветки)</t>
+  </si>
+  <si>
+    <t>перекулючение между ветками</t>
+  </si>
+  <si>
+    <t>git checkout имя ветки</t>
   </si>
   <si>
     <t xml:space="preserve">как создать репозиторий в гите с 2-мя ветками </t>
   </si>
   <si>
-    <t xml:space="preserve">1.создаём репозиторий на гите с галочкой readme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. создаём 1-ую папку локально и прописываем git init п.80</t>
+    <t>1.создаём репозиторий на гите с галочкой readme</t>
+  </si>
+  <si>
+    <t>2. создаём 1-ую папку локально и прописываем git init п.80</t>
   </si>
   <si>
     <r>
@@ -2911,7 +2918,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(origin это имя ХУЙ ЗНАЕТ ЧТО)</t>
+      <t>(origin это имя ХУЙ ЗНАЕТ ЧТО)</t>
     </r>
     <r>
       <rPr>
@@ -2946,170 +2953,170 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(название ветки)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ВАЖНО ОБНОВЛЯТЬ ФАЙЛЫ ПРОЧТО ТЧЕРЕЗ git push</t>
-  </si>
-  <si>
-    <t xml:space="preserve">получения файлов GIT с другого пк</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. git clone (ссылку на репозиторий)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. git checkout (название ветки) далее обновить папку и всё появится</t>
+      <t>(название ветки)</t>
+    </r>
+  </si>
+  <si>
+    <t>ВАЖНО ОБНОВЛЯТЬ ФАЙЛЫ ПРОЧТО ТЧЕРЕЗ git push</t>
+  </si>
+  <si>
+    <t>получения файлов GIT с другого пк</t>
+  </si>
+  <si>
+    <t>1. git clone (ссылку на репозиторий)</t>
+  </si>
+  <si>
+    <t>2. git checkout (название ветки) далее обновить папку и всё появится</t>
   </si>
   <si>
     <t>Теория</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Знание загрузки компьютера</t>
+    <t>1.Знание загрузки компьютера</t>
   </si>
   <si>
     <t>Bios</t>
   </si>
   <si>
-    <t xml:space="preserve">Входи в биос происходит посредством нажатий клавишь f2,f4,f10,delete и на некоторых моделях ноутбука fn+f2</t>
+    <t>Входи в биос происходит посредством нажатий клавишь f2,f4,f10,delete и на некоторых моделях ноутбука fn+f2</t>
   </si>
   <si>
     <t>uefi</t>
   </si>
   <si>
-    <t xml:space="preserve">Вход производится так же как в биос но сама система Uefi является более новой, позволяет работать с более высоким объемом дисков, быстрее и более надёжна, так же обладает графическим оформлением.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.Знание  файловой системы  fat(13/32/vFat)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Файловая система необходима для записи и считываю данных с дисков, fat16 имеет свойство считыавания файла размером не более 2 гб,  а вот fat32 уже 4 гб, vfat это расширение  появилось с выходом виндовс 95 и дала возможность использовать длинные имена</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 Понятие партиция</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Партиция -  это раздел на диске, а именно часть диска с долговременной памятью</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 Понятие кластер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Например кластер серверов, это несколько объеденёных серверов  в одну сеть локально и обрабатывающие одинаковые данные как единое целое.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 Понятие файл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Файл это обьект взаимодействия с программой или операционной системой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4 понятие папка (каталог)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Это объект файловой системы который позволяет структурировать работу в ОС, так же может хранить как файлы так и другие папки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5  Назвать колличество основных партиций</t>
-  </si>
-  <si>
-    <t xml:space="preserve">на виндовс 1, а на линукс системах 4. при создании партиции создаётся 9 разделов, 1,2,3 являются основными,4-ый основной но используется для хранения информации с5-ого по 9-ый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Создаются командой mkfs (mke2fs,mkreiserfs) далее можно просмотреть разделы командой fdisk 'fdisk/dev/hda' или 'fdisk/dev/sda' далее (p)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6 Что такое расширенная партиция</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Это первичный раздел который не содержит собственной файловой системы но содержит другие логические разделы</t>
+    <t>Вход производится так же как в биос но сама система Uefi является более новой, позволяет работать с более высоким объемом дисков, быстрее и более надёжна, так же обладает графическим оформлением.</t>
+  </si>
+  <si>
+    <t>2.Знание  файловой системы  fat(13/32/vFat)</t>
+  </si>
+  <si>
+    <t>Файловая система необходима для записи и считываю данных с дисков, fat16 имеет свойство считыавания файла размером не более 2 гб,  а вот fat32 уже 4 гб, vfat это расширение  появилось с выходом виндовс 95 и дала возможность использовать длинные имена</t>
+  </si>
+  <si>
+    <t>2.1 Понятие партиция</t>
+  </si>
+  <si>
+    <t>Партиция -  это раздел на диске, а именно часть диска с долговременной памятью</t>
+  </si>
+  <si>
+    <t>2.2 Понятие кластер</t>
+  </si>
+  <si>
+    <t>Например кластер серверов, это несколько объеденёных серверов  в одну сеть локально и обрабатывающие одинаковые данные как единое целое.</t>
+  </si>
+  <si>
+    <t>2.3 Понятие файл</t>
+  </si>
+  <si>
+    <t>Файл это обьект взаимодействия с программой или операционной системой</t>
+  </si>
+  <si>
+    <t>2.4 понятие папка (каталог)</t>
+  </si>
+  <si>
+    <t>Это объект файловой системы который позволяет структурировать работу в ОС, так же может хранить как файлы так и другие папки</t>
+  </si>
+  <si>
+    <t>2.5  Назвать колличество основных партиций</t>
+  </si>
+  <si>
+    <t>на виндовс 1, а на линукс системах 4. при создании партиции создаётся 9 разделов, 1,2,3 являются основными,4-ый основной но используется для хранения информации с5-ого по 9-ый</t>
+  </si>
+  <si>
+    <t>Создаются командой mkfs (mke2fs,mkreiserfs) далее можно просмотреть разделы командой fdisk 'fdisk/dev/hda' или 'fdisk/dev/sda' далее (p)</t>
+  </si>
+  <si>
+    <t>2.6 Что такое расширенная партиция</t>
+  </si>
+  <si>
+    <t>Это первичный раздел который не содержит собственной файловой системы но содержит другие логические разделы</t>
   </si>
   <si>
     <t xml:space="preserve">2.7 Дать  значение предельных лимитов партиции по объему байт </t>
   </si>
   <si>
-    <t xml:space="preserve">На одну партицию максимально возможно таблица разделов MBR 2тб (2 199 023 255 552)</t>
+    <t>На одну партицию максимально возможно таблица разделов MBR 2тб (2 199 023 255 552)</t>
   </si>
   <si>
     <t>https://unix.stackexchange.com/questions/33555/what-is-the-max-partition-supported-in-linux</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8 Рассчитать занимаемый объем на диске объемом 2Тб для 10 файлов по 1 байту при условии диск пустой файловая система fat32, одна партиция</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для начала необходимо узнать размер кластера и далее посчитать. Ответ будет 320кбайт</t>
+    <t>2.8 Рассчитать занимаемый объем на диске объемом 2Тб для 10 файлов по 1 байту при условии диск пустой файловая система fat32, одна партиция</t>
+  </si>
+  <si>
+    <t>Для начала необходимо узнать размер кластера и далее посчитать. Ответ будет 320кбайт</t>
   </si>
   <si>
     <t>3.Сети</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1 Модель OSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 Определение понятия MAC адрес</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mac адрес это имя сетевого оборудования устрйоства которое присваивается ещё на заводе и имеет 48 символов в виде убкв и цифр (Мак адрес возможно изменить через консоль)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3 Определение IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip имя позволяющее передавать информацию по сети как локальной так и внешней. Так же он содержит информацию о местоположении устройства и обеспечивает его доступность для связи. Имеет набор из 4 чисел в дапозоне до 255.255.255.255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4 Чем отличается канальный уровень от сетевого</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Канальный урвоень является вторым ,на этом уровне osi работают комутаторы и их задача передать сформированные кадры от одного устройства к другому используя в качестве адреса только физические MAC адреса,а сетевой уровень является 3-им и в него включён уже  маршрутизатор который в свою очередь получают MAC адрес от комутатора  и занимается построения маршрута с учётом всех неполадок сети. На этом уровне используется arp протокол с помощью которого 64 битные MAC адреса приобразуются в 32 битные IP адреса</t>
+    <t>3.1 Модель OSI</t>
+  </si>
+  <si>
+    <t>3.2 Определение понятия MAC адрес</t>
+  </si>
+  <si>
+    <t>Mac адрес это имя сетевого оборудования устрйоства которое присваивается ещё на заводе и имеет 48 символов в виде убкв и цифр (Мак адрес возможно изменить через консоль)</t>
+  </si>
+  <si>
+    <t>3.3 Определение IP</t>
+  </si>
+  <si>
+    <t>ip имя позволяющее передавать информацию по сети как локальной так и внешней. Так же он содержит информацию о местоположении устройства и обеспечивает его доступность для связи. Имеет набор из 4 чисел в дапозоне до 255.255.255.255</t>
+  </si>
+  <si>
+    <t>3.4 Чем отличается канальный уровень от сетевого</t>
+  </si>
+  <si>
+    <t>Канальный урвоень является вторым ,на этом уровне osi работают комутаторы и их задача передать сформированные кадры от одного устройства к другому используя в качестве адреса только физические MAC адреса,а сетевой уровень является 3-им и в него включён уже  маршрутизатор который в свою очередь получают MAC адрес от комутатора  и занимается построения маршрута с учётом всех неполадок сети. На этом уровне используется arp протокол с помощью которого 64 битные MAC адреса приобразуются в 32 битные IP адреса</t>
   </si>
   <si>
     <t>https://selectel.ru/blog/osi-for-beginners/</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5 Определение понятия ARP</t>
+    <t>3.5 Определение понятия ARP</t>
   </si>
   <si>
     <t xml:space="preserve">Это протокол связи используемый для обноружения адреса канального уровня модели OSI, а именно MAC  адреса, обычно по ipv4 </t>
   </si>
   <si>
-    <t xml:space="preserve">3.6 Что такое комутатор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комутатор это прибор объединяет несколько устрйоств в одну сеть по средством своего подключения для обмена данных. Подключать возможно компьютеры ,ноутбуки сервера или другие комутаторы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7 Что такое маршрутизатор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Это сетевое устрйоство которое подключается между локальной сетью и интернетом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Маршрутизатор так же имеет возможности защиты самой локальной сети из вне ,раздаёт Ip ,шифрует трафик, и так же может ограничивать доступ пользователей локальной сетив  интернет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8 сколько дефол-гетвеев может быть на одной ОС ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гетвей это сетевой шлюз. Является аппаратным или програмным обеспеченье для сопряжения работы компьютерной сети. Может быть столько, сколько подсетей назначено</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сетевой шлюз - это точка которая служит выходом в другую сеть.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9 Что такое таблица маршрутизации и дефолт гетвеи ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Таблица маршрутизации пердставляет собой таблицу состоящую из сетевых маршрутов для более быстрого и надёжного подключения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дефолт сетевой шлюз (Гетвей) - Является аппаратным или програмным обеспеченье для сопряжения работы компьютерной сети.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10. Объяснить, как компьютер из сети 192.168.1.100 может «увидеть» компьютер в сети 192.168.2.100 при условии, что они подключены к одному коммутатору.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">для передачи данных от 192.168.1.100 до 192.168.2.100 устройства используют MAC адреса, (Для такой передачи устройства должны иметь одну маску) , а нам МАС не известен, только ip, тут то как раз нужен протокол ARP.
+    <t>3.6 Что такое комутатор</t>
+  </si>
+  <si>
+    <t>Комутатор это прибор объединяет несколько устрйоств в одну сеть по средством своего подключения для обмена данных. Подключать возможно компьютеры ,ноутбуки сервера или другие комутаторы</t>
+  </si>
+  <si>
+    <t>3.7 Что такое маршрутизатор</t>
+  </si>
+  <si>
+    <t>Это сетевое устрйоство которое подключается между локальной сетью и интернетом</t>
+  </si>
+  <si>
+    <t>Маршрутизатор так же имеет возможности защиты самой локальной сети из вне ,раздаёт Ip ,шифрует трафик, и так же может ограничивать доступ пользователей локальной сетив  интернет</t>
+  </si>
+  <si>
+    <t>3.8 сколько дефол-гетвеев может быть на одной ОС ?</t>
+  </si>
+  <si>
+    <t>Гетвей это сетевой шлюз. Является аппаратным или програмным обеспеченье для сопряжения работы компьютерной сети. Может быть столько, сколько подсетей назначено</t>
+  </si>
+  <si>
+    <t>Сетевой шлюз - это точка которая служит выходом в другую сеть.</t>
+  </si>
+  <si>
+    <t>3.9 Что такое таблица маршрутизации и дефолт гетвеи ?</t>
+  </si>
+  <si>
+    <t>Таблица маршрутизации пердставляет собой таблицу состоящую из сетевых маршрутов для более быстрого и надёжного подключения</t>
+  </si>
+  <si>
+    <t>Дефолт сетевой шлюз (Гетвей) - Является аппаратным или програмным обеспеченье для сопряжения работы компьютерной сети.</t>
+  </si>
+  <si>
+    <t>3.10. Объяснить, как компьютер из сети 192.168.1.100 может «увидеть» компьютер в сети 192.168.2.100 при условии, что они подключены к одному коммутатору.</t>
+  </si>
+  <si>
+    <t>для передачи данных от 192.168.1.100 до 192.168.2.100 устройства используют MAC адреса, (Для такой передачи устройства должны иметь одну маску) , а нам МАС не известен, только ip, тут то как раз нужен протокол ARP.
 ARP состоит из двух частей. Первая – определяет физический адрес при посылке пакета, вторая – отвечает на запросы других станций.
 Пример ARP-таблицы.
 192.168.1.1 08:10:29:00:2F:C3
@@ -3118,16 +3125,16 @@
 Прежде, чем подключиться к одному из устройств, IP-протокол проверяет, есть ли в его ARP-таблице запись о соответствующем устройстве. Если такая запись имеется, то происходит непосредственно подключение и передача пакетов. Если же нет, то посылается широковещательный ARP-запрос, который выясняет, какому из устройств принадлежит IP-адрес. Идентифицировав себя, устройство посылает в ответ свой MAC-адрес, а в ARP-таблицу отправителя заносится соответствующая запись.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. UNIX/Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1  Что такое GRUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Это первая программа которая запускает при включение компьютера, она загружает ядро процесора которое в свою очередь запускает остальные части операциолнной системы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2 Использование GRUB Recue, команды</t>
+    <t>4. UNIX/Linux</t>
+  </si>
+  <si>
+    <t>4.1  Что такое GRUB</t>
+  </si>
+  <si>
+    <t>Это первая программа которая запускает при включение компьютера, она загружает ядро процесора которое в свою очередь запускает остальные части операциолнной системы</t>
+  </si>
+  <si>
+    <t>4.2 Использование GRUB Recue, команды</t>
   </si>
   <si>
     <r>
@@ -3173,21 +3180,21 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(insmod ext2) (insmod normal) 
+      <t>(insmod ext2) (insmod normal) 
 normal</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">команды: dump - очистка памяти,exit, boot,cat,chain,help insmod, linux,ls,multiboot,normal,set,unset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3 основные команды для работы с каталогами и файлами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ls, cd, mkdir, cat, rm, mv, cp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4 способы запуска программ</t>
+    <t>команды: dump - очистка памяти,exit, boot,cat,chain,help insmod, linux,ls,multiboot,normal,set,unset</t>
+  </si>
+  <si>
+    <t>4.3 основные команды для работы с каталогами и файлами</t>
+  </si>
+  <si>
+    <t>Ls, cd, mkdir, cat, rm, mv, cp</t>
+  </si>
+  <si>
+    <t>4.4 способы запуска программ</t>
   </si>
   <si>
     <r>
@@ -3200,7 +3207,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">python3 python.py</t>
+      <t>python3 python.py</t>
     </r>
     <r>
       <rPr>
@@ -3218,7 +3225,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">bash testfile.sh</t>
+      <t>bash testfile.sh</t>
     </r>
     <r>
       <rPr>
@@ -3240,11 +3247,11 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">4.5 консольные редакторы Текса</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">nano, vi,</t>
+    <t>4.5 консольные редакторы Текса</t>
+  </si>
+  <si>
+    <r>
+      <t>nano, vi,</t>
     </r>
     <r>
       <rPr>
@@ -3257,20 +3264,20 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">4.6 назначение каталогов в Unix и Linux системах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В файловой системе находится множество каталогов которые хронят различную информацию</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/ - корневой каталог, /bin - основные бинарные файлы (программы),/boot - файлы для загрузки ОС и тд ,смотри скрины</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7 где и как посмотреть отчёты о работе системы</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">посмотреть можно</t>
+    <t>4.6 назначение каталогов в Unix и Linux системах</t>
+  </si>
+  <si>
+    <t>В файловой системе находится множество каталогов которые хронят различную информацию</t>
+  </si>
+  <si>
+    <t>/ - корневой каталог, /bin - основные бинарные файлы (программы),/boot - файлы для загрузки ОС и тд ,смотри скрины</t>
+  </si>
+  <si>
+    <t>4.7 где и как посмотреть отчёты о работе системы</t>
+  </si>
+  <si>
+    <r>
+      <t>посмотреть можно</t>
     </r>
     <r>
       <rPr>
@@ -3306,16 +3313,16 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">. (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">лог - Dpkg.log только в системах дебиан.</t>
+      <t>. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>лог - Dpkg.log только в системах дебиан.</t>
     </r>
     <r>
       <rPr>
@@ -3328,11 +3335,11 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">4.8 Как установить необходимый пакет для Ubuntu или CentOS</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">пакеты устанавливаются с помощью</t>
+    <t>4.8 Как установить необходимый пакет для Ubuntu или CentOS</t>
+  </si>
+  <si>
+    <r>
+      <t>пакеты устанавливаются с помощью</t>
     </r>
     <r>
       <rPr>
@@ -3360,11 +3367,11 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">sudo yum install  название пакета.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Виндовс и другие продукты решения майкрософт</t>
+      <t>sudo yum install  название пакета.</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Виндовс и другие продукты решения майкрософт</t>
   </si>
   <si>
     <r>
@@ -3386,18 +3393,18 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">возможности, применение.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Это служба каталогов разработанная виндовс для управления доменной сетью.</t>
+      <t>возможности, применение.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Это служба каталогов разработанная виндовс для управления доменной сетью.</t>
     </r>
     <r>
       <rPr>
@@ -3420,7 +3427,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Логирование событий в Windows</t>
+      <t>Логирование событий в Windows</t>
     </r>
     <r>
       <rPr>
@@ -3470,7 +3477,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">приложение. Так же открыть сам журнал можно командой в терминале (</t>
+      <t>приложение. Так же открыть сам журнал можно командой в терминале (</t>
     </r>
     <r>
       <rPr>
@@ -3510,7 +3517,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Windows 10 подробно записывает все события, в том числе ошибки. Просматривая сведения о них, можно найти причину сбоя.</t>
+    <t>Windows 10 подробно записывает все события, в том числе ошибки. Просматривая сведения о них, можно найти причину сбоя.</t>
   </si>
   <si>
     <r>
@@ -3532,7 +3539,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">архитектура решения, как искать, удалять письма в ящиках, как смотреть логи отправки/получения.</t>
+      <t>архитектура решения, как искать, удалять письма в ящиках, как смотреть логи отправки/получения.</t>
     </r>
   </si>
   <si>
@@ -3546,7 +3553,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Start-MailboxSearch "текст"</t>
+      <t>Start-MailboxSearch "текст"</t>
     </r>
     <r>
       <rPr>
@@ -3577,7 +3584,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Для  удаления пишем Get-Mailbox -resultsize unlimited | Search-Mailbox -SearchQuery ‘Subject:"happy new year"‘ -DeleteContent -confirm:$false       - сначала находит данные письма ,после чего удаляем их командой</t>
+    <t>Для  удаления пишем Get-Mailbox -resultsize unlimited | Search-Mailbox -SearchQuery ‘Subject:"happy new year"‘ -DeleteContent -confirm:$false       - сначала находит данные письма ,после чего удаляем их командой</t>
   </si>
   <si>
     <r>
@@ -3613,7 +3620,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">консоли Exchange Management Shell.</t>
+      <t>консоли Exchange Management Shell.</t>
     </r>
   </si>
   <si>
@@ -3630,12 +3637,12 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Безопасность и Доступ.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Вкалака «</t>
+      <t>Безопасность и Доступ.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Вкалака «</t>
     </r>
     <r>
       <rPr>
@@ -3662,27 +3669,27 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">это разрешения файловой системы (NTFS)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Проверяется при любом доступе к файлу.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Вкладка «Доступ» — разрешения на доступ к сетевому ресурсу (корень диска по умолчанию доступен из сети администраторам). Проверяется при доступе к шаре</t>
+      <t>это разрешения файловой системы (NTFS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Проверяется при любом доступе к файлу.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Вкладка «Доступ» — разрешения на доступ к сетевому ресурсу (корень диска по умолчанию доступен из сети администраторам). Проверяется при доступе к шаре</t>
     </r>
     <r>
       <rPr>
@@ -3705,11 +3712,11 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Вкладка "Доступ" для доступа(совместного использования) по сети.
+    <t>Вкладка "Доступ" для доступа(совместного использования) по сети.
 Вкладка "Безопасность" права на NTFS раздел(т.е. как бы локальный доступ к папке).</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Виртуализация</t>
+    <t>6. Виртуализация</t>
   </si>
   <si>
     <r>
@@ -3731,18 +3738,18 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">архитектура решения, методы подключения к столам.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Это приложение которое позволяет администрировать сразу несколько рабочих станций , например обновлять их.</t>
+      <t>архитектура решения, методы подключения к столам.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Это приложение которое позволяет администрировать сразу несколько рабочих станций , например обновлять их.</t>
     </r>
     <r>
       <rPr>
@@ -3755,7 +3762,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">так же преимуществом считается возможность централизованого резервного копирования</t>
+    <t>так же преимуществом считается возможность централизованого резервного копирования</t>
   </si>
   <si>
     <r>
@@ -3768,7 +3775,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">через защищенное подключение SSL</t>
+      <t>через защищенное подключение SSL</t>
     </r>
     <r>
       <rPr>
@@ -3788,11 +3795,11 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">local mode.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">? Что такое квотирвоание ресурсов</t>
+      <t>local mode.</t>
+    </r>
+  </si>
+  <si>
+    <t>? Что такое квотирвоание ресурсов</t>
   </si>
   <si>
     <r>
@@ -3832,7 +3839,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">» от «</t>
+      <t>» от «</t>
     </r>
     <r>
       <rPr>
@@ -3859,7 +3866,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">квотирования ресурсов</t>
+      <t>квотирования ресурсов</t>
     </r>
     <r>
       <rPr>
@@ -3872,7 +3879,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Это инструмент управления облачной инфраструктурой</t>
+    <t>Это инструмент управления облачной инфраструктурой</t>
   </si>
   <si>
     <r>
@@ -3966,7 +3973,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">esxi, vcenter, vsphere</t>
+      <t>esxi, vcenter, vsphere</t>
     </r>
     <r>
       <rPr>
@@ -3984,7 +3991,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">DRS, sDRS</t>
+      <t>DRS, sDRS</t>
     </r>
     <r>
       <rPr>
@@ -4060,7 +4067,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">VMWare ESXi</t>
+      <t>VMWare ESXi</t>
     </r>
     <r>
       <rPr>
@@ -4098,18 +4105,18 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">С её помощью вы можете распоряжаться почти всеми процессами всего с одной консоли</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="2"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">VMWare vSphere</t>
+      <t>С её помощью вы можете распоряжаться почти всеми процессами всего с одной консоли</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="2"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VMWare vSphere</t>
     </r>
     <r>
       <rPr>
@@ -4127,16 +4134,16 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">это платформа виртуализации промышленного уровня</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. К набору программных компонентов, входящих в нее, относятся в числе прочих гипервизор</t>
+      <t>это платформа виртуализации промышленного уровня</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. К набору программных компонентов, входящих в нее, относятся в числе прочих гипервизор</t>
     </r>
     <r>
       <rPr>
@@ -4163,7 +4170,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">vCenter Server.</t>
+      <t>vCenter Server.</t>
     </r>
   </si>
   <si>
@@ -4174,7 +4181,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Vmware DRS</t>
+      <t>Vmware DRS</t>
     </r>
     <r>
       <rPr>
@@ -4225,10 +4232,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Порт протокол</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сетевые протоколы</t>
+    <t>Порт протокол</t>
+  </si>
+  <si>
+    <t>Сетевые протоколы</t>
   </si>
   <si>
     <r>
@@ -4246,7 +4253,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">что бы редактировать нужно зайти в Insert mod для этого нажать</t>
+      <t>что бы редактировать нужно зайти в Insert mod для этого нажать</t>
     </r>
     <r>
       <rPr>
@@ -4260,7 +4267,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">что бы сохранить нужно внизу написать</t>
+      <t>что бы сохранить нужно внизу написать</t>
     </r>
     <r>
       <rPr>
@@ -4351,25 +4358,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Общая информация о системе</t>
+    <t>Общая информация о системе</t>
   </si>
   <si>
     <t>hostnamectl</t>
   </si>
   <si>
-    <t xml:space="preserve">Сети SSH проброск порта</t>
+    <t>Сети SSH проброск порта</t>
   </si>
   <si>
     <t xml:space="preserve">отключение фаирвола </t>
   </si>
   <si>
-    <t xml:space="preserve">systemctl firewalld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Надо не забыть установить сам фаервол если необходимо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отключение автозапуска  фаервола</t>
+    <t>Надо не забыть установить сам фаервол если необходимо</t>
+  </si>
+  <si>
+    <t>Отключение автозапуска  фаервола</t>
   </si>
   <si>
     <t xml:space="preserve"> systemctl disable firewalld</t>
@@ -4378,92 +4382,169 @@
     <t xml:space="preserve">Включение ssh </t>
   </si>
   <si>
-    <t xml:space="preserve">systemctl start sshd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Надо не забыть установить sshd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автоматический запуск SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">systemctl enable sshd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Так же можно сразу просмотреть статус прописав systemctl status sshd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">узнать IP на врнде</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip config</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Необзодимо смотреть IPv4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">нам необзодим enp*** строчка с inet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Далее нам необходимо пробросить порты в настрйоках виртуал бокса ставим в кладке ip наш апишник с виндовс  2222 порт хоста айпишник гостя с п. 167 и 22 порт гостя так как это стандартный порт для ssh подключения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">через программу pitty вводим адрес винды и порт 2222. осле чего должны подключиться</t>
+    <t>systemctl start sshd</t>
+  </si>
+  <si>
+    <t>Надо не забыть установить sshd</t>
+  </si>
+  <si>
+    <t>Автоматический запуск SSH</t>
+  </si>
+  <si>
+    <t>systemctl enable sshd</t>
+  </si>
+  <si>
+    <t>Так же можно сразу просмотреть статус прописав systemctl status sshd</t>
+  </si>
+  <si>
+    <t>узнать IP на врнде</t>
+  </si>
+  <si>
+    <t>ip config</t>
+  </si>
+  <si>
+    <t>Необзодимо смотреть IPv4</t>
+  </si>
+  <si>
+    <t>ip addr</t>
+  </si>
+  <si>
+    <t>нам необзодим enp*** строчка с inet</t>
+  </si>
+  <si>
+    <t>Далее нам необходимо пробросить порты в настрйоках виртуал бокса ставим в кладке ip наш апишник с виндовс  2222 порт хоста айпишник гостя с п. 167 и 22 порт гостя так как это стандартный порт для ssh подключения</t>
+  </si>
+  <si>
+    <t>через программу pitty вводим адрес винды и порт 2222. осле чего должны подключиться</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Как стянуть обновылённые файла из ветки, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git pull</t>
+    </r>
+  </si>
+  <si>
+    <t>systemctl stop firewalld</t>
+  </si>
+  <si>
+    <t>Можно проверить стратует ли хост , ssh localhost</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Можно проверить стратует ли хост , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ssh localhost</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="10"/>
-      <sz val="11.000000"/>
-      <u/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <color indexed="2"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="2"/>
       <name val="Calibri"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <color rgb="FF00B050"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="12.000000"/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <b/>
-      <color indexed="2"/>
-      <sz val="12.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="2"/>
       <name val="Arial"/>
-      <sz val="11.000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -4532,66 +4613,69 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4601,25 +4685,25 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment horizontal="left" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4627,12 +4711,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -4648,13 +4735,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2" hidden="0"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -4684,13 +4777,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6" hidden="0"/>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -4720,13 +4819,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Рисунок 8" hidden="0"/>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -4756,13 +4861,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Рисунок 10" hidden="0"/>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -4792,13 +4903,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Рисунок 12" hidden="0"/>
+        <xdr:cNvPr id="13" name="Рисунок 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -4828,13 +4945,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Рисунок 14" hidden="0"/>
+        <xdr:cNvPr id="15" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -4864,13 +4987,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Рисунок 16" hidden="0"/>
+        <xdr:cNvPr id="17" name="Рисунок 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -4900,13 +5029,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Рисунок 18" hidden="0"/>
+        <xdr:cNvPr id="19" name="Рисунок 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -4936,13 +5071,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3" hidden="0"/>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -4972,13 +5113,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5" hidden="0"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5008,13 +5155,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Рисунок 9" hidden="0"/>
+        <xdr:cNvPr id="10" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5044,13 +5197,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Рисунок 11" hidden="0"/>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5080,13 +5239,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4" hidden="0"/>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5116,13 +5281,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Рисунок 13" hidden="0"/>
+        <xdr:cNvPr id="14" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5152,13 +5323,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Рисунок 17" hidden="0"/>
+        <xdr:cNvPr id="18" name="Рисунок 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5188,13 +5365,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Рисунок 20" hidden="0"/>
+        <xdr:cNvPr id="21" name="Рисунок 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5224,13 +5407,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Рисунок 22" hidden="0"/>
+        <xdr:cNvPr id="23" name="Рисунок 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5260,13 +5449,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Рисунок 7" hidden="0"/>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5296,13 +5491,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Рисунок 23" hidden="0"/>
+        <xdr:cNvPr id="24" name="Рисунок 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5332,13 +5533,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Рисунок 25" hidden="0"/>
+        <xdr:cNvPr id="26" name="Рисунок 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5368,13 +5575,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Рисунок 27" hidden="0"/>
+        <xdr:cNvPr id="28" name="Рисунок 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5404,13 +5617,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Рисунок 29" hidden="0"/>
+        <xdr:cNvPr id="30" name="Рисунок 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5440,13 +5659,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Рисунок 31" hidden="0"/>
+        <xdr:cNvPr id="32" name="Рисунок 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5476,13 +5701,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Рисунок 33" hidden="0"/>
+        <xdr:cNvPr id="34" name="Рисунок 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5512,13 +5743,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Рисунок 15" hidden="0"/>
+        <xdr:cNvPr id="16" name="Рисунок 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5548,13 +5785,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Рисунок 21" hidden="0"/>
+        <xdr:cNvPr id="22" name="Рисунок 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5584,13 +5827,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Рисунок 26" hidden="0"/>
+        <xdr:cNvPr id="27" name="Рисунок 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5620,13 +5869,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Рисунок 30" hidden="0"/>
+        <xdr:cNvPr id="31" name="Рисунок 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5656,13 +5911,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Рисунок 34" hidden="0"/>
+        <xdr:cNvPr id="35" name="Рисунок 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5692,13 +5953,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Рисунок 36" hidden="0"/>
+        <xdr:cNvPr id="37" name="Рисунок 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5728,13 +5995,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Рисунок 19" hidden="0"/>
+        <xdr:cNvPr id="20" name="Рисунок 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5764,13 +6037,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Рисунок 28" hidden="0"/>
+        <xdr:cNvPr id="29" name="Рисунок 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId32"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5800,13 +6079,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Рисунок 35" hidden="0"/>
+        <xdr:cNvPr id="36" name="Рисунок 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId33"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5836,13 +6121,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Рисунок 38" hidden="0"/>
+        <xdr:cNvPr id="39" name="Рисунок 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5872,13 +6163,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Рисунок 40" hidden="0"/>
+        <xdr:cNvPr id="41" name="Рисунок 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId35"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5908,13 +6205,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Рисунок 24" hidden="0"/>
+        <xdr:cNvPr id="25" name="Рисунок 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5944,13 +6247,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Рисунок 37" hidden="0"/>
+        <xdr:cNvPr id="38" name="Рисунок 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId37"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -5980,13 +6289,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Рисунок 32" hidden="0"/>
+        <xdr:cNvPr id="33" name="Рисунок 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -6016,13 +6331,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Рисунок 41" hidden="0"/>
+        <xdr:cNvPr id="42" name="Рисунок 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -6052,13 +6373,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Рисунок 43" hidden="0"/>
+        <xdr:cNvPr id="44" name="Рисунок 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -6088,13 +6415,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Рисунок 45" hidden="0"/>
+        <xdr:cNvPr id="46" name="Рисунок 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId41"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -6124,13 +6457,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1" hidden="0"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -6160,13 +6499,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Рисунок 42" hidden="0"/>
+        <xdr:cNvPr id="43" name="Рисунок 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId43"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -6185,306 +6530,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Таблица1" ref="A1:G186">
-  <autoFilter ref="A1:G186"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:G186">
+  <autoFilter ref="A1:G186" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Название команды" dataDxfId="0"/>
-    <tableColumn id="2" name="Команда" dataDxfId="1"/>
-    <tableColumn id="3" name="Описание" dataDxfId="2"/>
-    <tableColumn id="4" name="Вопросы" dataDxfId="3"/>
-    <tableColumn id="5" name="Ответ" dataDxfId="4"/>
-    <tableColumn id="6" name="Особенности" dataDxfId="5"/>
-    <tableColumn id="7" name="Важные снимки" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Название команды" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Команда" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Описание" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Вопросы" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Ответ" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Особенности" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Важные снимки" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6687,28 +6749,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" zoomScale="100" workbookViewId="0">
-      <selection activeCell="E158" activeCellId="0" sqref="E158"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.85546875"/>
-    <col customWidth="1" min="2" max="2" width="15.5703125"/>
-    <col customWidth="1" min="3" max="3" width="50.28515625"/>
-    <col customWidth="1" min="4" max="4" width="27.7109375"/>
-    <col customWidth="1" min="5" max="5" width="41"/>
-    <col customWidth="1" min="6" max="6" width="46.85546875"/>
-    <col customWidth="1" min="7" max="7" width="145.42578125"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="50.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" customWidth="1"/>
+    <col min="7" max="7" width="145.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6731,7 +6795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -6746,7 +6810,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -6761,7 +6825,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -6776,7 +6840,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" ht="30">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -6791,7 +6855,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -6806,7 +6870,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -6821,7 +6885,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" ht="117.75" customHeight="1">
+    <row r="8" spans="1:7" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -6840,7 +6904,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" ht="302.25" customHeight="1">
+    <row r="9" spans="1:7" ht="302.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -6857,7 +6921,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" ht="87" customHeight="1">
+    <row r="10" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -6874,7 +6938,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" ht="192.75" customHeight="1">
+    <row r="11" spans="1:7" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -6891,7 +6955,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" ht="39" customHeight="1">
+    <row r="12" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -6906,7 +6970,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" ht="45">
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -6921,7 +6985,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" ht="386.25" customHeight="1">
+    <row r="14" spans="1:7" ht="386.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -6932,7 +6996,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" ht="186.75" customHeight="1">
+    <row r="15" spans="1:7" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -6947,7 +7011,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" ht="207" customHeight="1">
+    <row r="16" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
@@ -6964,7 +7028,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" ht="60">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -6981,7 +7045,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -6996,7 +7060,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
@@ -7011,7 +7075,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -7026,7 +7090,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" ht="45">
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -7045,7 +7109,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -7062,7 +7126,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" ht="30">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
@@ -7079,7 +7143,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" ht="30">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
@@ -7094,7 +7158,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" ht="30">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>85</v>
       </c>
@@ -7109,7 +7173,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" ht="45">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
@@ -7124,7 +7188,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" ht="90">
+    <row r="27" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>91</v>
       </c>
@@ -7139,7 +7203,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" ht="45">
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>94</v>
       </c>
@@ -7160,7 +7224,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" ht="165">
+    <row r="29" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>100</v>
       </c>
@@ -7175,7 +7239,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" ht="30">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>103</v>
       </c>
@@ -7190,7 +7254,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" ht="90">
+    <row r="31" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>106</v>
       </c>
@@ -7209,7 +7273,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" ht="30">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>111</v>
       </c>
@@ -7224,7 +7288,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" ht="30">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>114</v>
       </c>
@@ -7239,7 +7303,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>117</v>
       </c>
@@ -7254,7 +7318,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" ht="45">
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>120</v>
       </c>
@@ -7271,7 +7335,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" ht="78" customHeight="1">
+    <row r="36" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>124</v>
       </c>
@@ -7284,7 +7348,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" ht="45">
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>126</v>
       </c>
@@ -7301,7 +7365,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" ht="30">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>130</v>
       </c>
@@ -7318,7 +7382,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" ht="45">
+    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>133</v>
       </c>
@@ -7335,7 +7399,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" ht="30">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>136</v>
       </c>
@@ -7352,7 +7416,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" ht="45">
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>139</v>
       </c>
@@ -7369,7 +7433,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" ht="45">
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>142</v>
       </c>
@@ -7386,7 +7450,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" ht="45">
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>145</v>
       </c>
@@ -7403,7 +7467,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" ht="75">
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>148</v>
       </c>
@@ -7420,7 +7484,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" ht="30">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>152</v>
       </c>
@@ -7435,7 +7499,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" ht="30">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>154</v>
       </c>
@@ -7448,7 +7512,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" ht="60">
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>156</v>
       </c>
@@ -7461,7 +7525,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" ht="30">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>158</v>
       </c>
@@ -7478,7 +7542,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" ht="75">
+    <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>162</v>
       </c>
@@ -7495,7 +7559,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" ht="30">
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>166</v>
       </c>
@@ -7512,7 +7576,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>170</v>
       </c>
@@ -7527,7 +7591,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" ht="30">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>173</v>
       </c>
@@ -7542,7 +7606,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" ht="30">
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>176</v>
       </c>
@@ -7557,7 +7621,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" ht="30">
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>179</v>
       </c>
@@ -7570,7 +7634,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" ht="30">
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>181</v>
       </c>
@@ -7585,7 +7649,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" ht="30">
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>184</v>
       </c>
@@ -7600,7 +7664,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" ht="30">
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>187</v>
       </c>
@@ -7613,7 +7677,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" ht="30">
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>189</v>
       </c>
@@ -7632,7 +7696,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" ht="114.75" customHeight="1">
+    <row r="59" spans="1:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>194</v>
       </c>
@@ -7647,7 +7711,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -7656,7 +7720,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" ht="117.75" customHeight="1">
+    <row r="61" spans="1:7" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>197</v>
       </c>
@@ -7671,7 +7735,7 @@
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" ht="106.5" customHeight="1">
+    <row r="62" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>200</v>
       </c>
@@ -7686,7 +7750,7 @@
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" ht="81" customHeight="1">
+    <row r="63" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>203</v>
       </c>
@@ -7699,7 +7763,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" ht="134.25" customHeight="1">
+    <row r="64" spans="1:7" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>205</v>
       </c>
@@ -7716,7 +7780,7 @@
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" ht="102.75" customHeight="1">
+    <row r="65" spans="1:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>209</v>
       </c>
@@ -7729,7 +7793,7 @@
       </c>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" ht="73.5" customHeight="1">
+    <row r="66" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>211</v>
       </c>
@@ -7742,7 +7806,7 @@
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" ht="123" customHeight="1">
+    <row r="67" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>213</v>
       </c>
@@ -7755,7 +7819,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>215</v>
       </c>
@@ -7768,7 +7832,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" ht="45">
+    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>217</v>
       </c>
@@ -7785,7 +7849,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" ht="45">
+    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>221</v>
       </c>
@@ -7802,7 +7866,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" ht="212.25" customHeight="1">
+    <row r="71" spans="1:7" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>225</v>
       </c>
@@ -7821,7 +7885,7 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" ht="231" customHeight="1">
+    <row r="72" spans="1:7" ht="231" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>229</v>
       </c>
@@ -7838,7 +7902,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="73" ht="45">
+    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>233</v>
       </c>
@@ -7853,7 +7917,7 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" ht="105">
+    <row r="74" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>236</v>
       </c>
@@ -7868,7 +7932,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" ht="90">
+    <row r="75" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>239</v>
       </c>
@@ -7883,7 +7947,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" ht="75">
+    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>242</v>
       </c>
@@ -7898,7 +7962,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" ht="54" customHeight="1">
+    <row r="77" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>245</v>
       </c>
@@ -7917,7 +7981,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="78" s="10" customFormat="1" ht="30">
+    <row r="78" spans="1:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>250</v>
       </c>
@@ -7932,7 +7996,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
     </row>
-    <row r="79" ht="30">
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>253</v>
       </c>
@@ -7947,7 +8011,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" ht="30">
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>256</v>
       </c>
@@ -7962,7 +8026,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" ht="45">
+    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>259</v>
       </c>
@@ -7979,7 +8043,7 @@
       </c>
       <c r="G81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>263</v>
       </c>
@@ -7994,7 +8058,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" ht="45">
+    <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>266</v>
       </c>
@@ -8009,7 +8073,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" ht="75">
+    <row r="84" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>269</v>
       </c>
@@ -8022,7 +8086,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" ht="60">
+    <row r="85" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>271</v>
       </c>
@@ -8041,7 +8105,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" ht="60">
+    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>276</v>
       </c>
@@ -8054,7 +8118,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" ht="45">
+    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>278</v>
       </c>
@@ -8071,7 +8135,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" ht="150" customHeight="1">
+    <row r="88" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>282</v>
       </c>
@@ -8092,7 +8156,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -8101,7 +8165,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -8110,7 +8174,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -8119,7 +8183,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -8128,7 +8192,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -8137,7 +8201,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -8146,7 +8210,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -8155,7 +8219,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -8164,7 +8228,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -8173,7 +8237,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -8182,7 +8246,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -8191,7 +8255,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -8200,7 +8264,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -8209,7 +8273,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
+    <row r="102" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -8218,7 +8282,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" hidden="1">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -8227,7 +8291,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" ht="5.25" customHeight="1">
+    <row r="104" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -8236,7 +8300,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" ht="3" customHeight="1">
+    <row r="105" spans="1:7" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -8245,7 +8309,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" ht="30">
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>288</v>
       </c>
@@ -8260,7 +8324,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" ht="60">
+    <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>291</v>
       </c>
@@ -8277,7 +8341,7 @@
       </c>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" ht="60">
+    <row r="108" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>295</v>
       </c>
@@ -8294,7 +8358,7 @@
       </c>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" s="13" customFormat="1" ht="30">
+    <row r="109" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>299</v>
       </c>
@@ -8307,7 +8371,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" ht="90">
+    <row r="110" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>301</v>
       </c>
@@ -8324,7 +8388,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" ht="75">
+    <row r="111" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>305</v>
       </c>
@@ -8335,11 +8399,13 @@
         <v>307</v>
       </c>
       <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
+      <c r="E111" s="24" t="s">
+        <v>450</v>
+      </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" ht="45">
+    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>308</v>
       </c>
@@ -8352,7 +8418,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" ht="30">
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>310</v>
       </c>
@@ -8365,7 +8431,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" ht="75">
+    <row r="114" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>312</v>
       </c>
@@ -8388,7 +8454,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="115" ht="45">
+    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>319</v>
       </c>
@@ -8403,7 +8469,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" s="14" customFormat="1">
+    <row r="116" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
         <v>322</v>
       </c>
@@ -8414,7 +8480,7 @@
       <c r="F116" s="15"/>
       <c r="G116" s="15"/>
     </row>
-    <row r="117" ht="45">
+    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>323</v>
       </c>
@@ -8429,7 +8495,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" ht="75">
+    <row r="118" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
         <v>326</v>
@@ -8442,7 +8508,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" ht="345">
+    <row r="119" spans="1:7" ht="345" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>328</v>
       </c>
@@ -8455,7 +8521,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" ht="30">
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1" t="s">
         <v>330</v>
@@ -8468,7 +8534,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" ht="60">
+    <row r="121" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
         <v>332</v>
@@ -8481,7 +8547,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" ht="30">
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>334</v>
@@ -8494,7 +8560,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" ht="45">
+    <row r="123" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>336</v>
@@ -8507,7 +8573,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" ht="90">
+    <row r="124" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
         <v>338</v>
@@ -8522,7 +8588,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" ht="45">
+    <row r="125" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
         <v>341</v>
@@ -8535,7 +8601,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" ht="90">
+    <row r="126" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
         <v>343</v>
@@ -8550,7 +8616,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" ht="165">
+    <row r="127" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
         <v>346</v>
@@ -8563,7 +8629,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>348</v>
       </c>
@@ -8574,7 +8640,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" ht="213.75" customHeight="1">
+    <row r="129" spans="1:7" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
         <v>349</v>
@@ -8585,7 +8651,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" ht="57">
+    <row r="130" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
         <v>350</v>
@@ -8598,7 +8664,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" ht="71.25">
+    <row r="131" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="17" t="s">
         <v>352</v>
@@ -8611,7 +8677,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" ht="156.75">
+    <row r="132" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
         <v>354</v>
@@ -8626,7 +8692,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" ht="42.75">
+    <row r="133" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
         <v>357</v>
@@ -8639,7 +8705,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" ht="71.25">
+    <row r="134" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="17" t="s">
         <v>359</v>
@@ -8652,7 +8718,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" ht="99.75">
+    <row r="135" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
         <v>361</v>
@@ -8667,7 +8733,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" ht="57">
+    <row r="136" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
         <v>364</v>
@@ -8682,7 +8748,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" ht="71.25">
+    <row r="137" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
         <v>367</v>
@@ -8697,7 +8763,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" ht="327.75">
+    <row r="138" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
         <v>370</v>
@@ -8710,7 +8776,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>372</v>
       </c>
@@ -8721,7 +8787,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" ht="57">
+    <row r="140" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>373</v>
@@ -8734,7 +8800,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" ht="85.5">
+    <row r="141" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
         <v>375</v>
@@ -8749,7 +8815,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" ht="71.25">
+    <row r="142" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
         <v>378</v>
@@ -8762,7 +8828,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" ht="171">
+    <row r="143" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
         <v>380</v>
@@ -8775,7 +8841,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" ht="42.75">
+    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
         <v>382</v>
@@ -8788,7 +8854,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" ht="322.5" customHeight="1">
+    <row r="145" spans="1:7" ht="322.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
         <v>384</v>
@@ -8803,7 +8869,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="18"/>
     </row>
-    <row r="146" ht="409.5" customHeight="1">
+    <row r="146" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
         <v>387</v>
@@ -8816,7 +8882,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" ht="149.25" customHeight="1">
+    <row r="147" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -8825,7 +8891,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" ht="409.5" customHeight="1">
+    <row r="148" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="17" t="s">
         <v>389</v>
@@ -8838,7 +8904,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" ht="42.75">
+    <row r="149" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>391</v>
       </c>
@@ -8849,7 +8915,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" ht="71.25">
+    <row r="150" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
         <v>392</v>
@@ -8862,7 +8928,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" ht="114">
+    <row r="151" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
         <v>394</v>
@@ -8877,7 +8943,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" ht="128.25">
+    <row r="152" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
         <v>397</v>
@@ -8898,7 +8964,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="153" ht="171">
+    <row r="153" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
         <v>403</v>
@@ -8915,7 +8981,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>407</v>
       </c>
@@ -8926,7 +8992,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" ht="156.75">
+    <row r="155" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
         <v>408</v>
@@ -8943,7 +9009,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" ht="142.5">
+    <row r="156" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>412</v>
       </c>
@@ -8966,7 +9032,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="157" ht="142.5">
+    <row r="157" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
         <v>419</v>
@@ -8987,7 +9053,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="158" ht="382.5" customHeight="1">
+    <row r="158" spans="1:7" ht="382.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>425</v>
       </c>
@@ -8998,7 +9064,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" ht="275.25" customHeight="1">
+    <row r="159" spans="1:7" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>426</v>
       </c>
@@ -9009,7 +9075,7 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" ht="71.25">
+    <row r="160" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>427</v>
       </c>
@@ -9024,7 +9090,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" ht="28.5">
+    <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>430</v>
       </c>
@@ -9037,7 +9103,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" s="20" customFormat="1" ht="28.5">
+    <row r="162" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="21" t="s">
         <v>432</v>
       </c>
@@ -9048,27 +9114,27 @@
       <c r="F162" s="22"/>
       <c r="G162" s="22"/>
     </row>
-    <row r="163" ht="28.5">
+    <row r="163" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="B163" s="23" t="s">
+      <c r="B163" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="C163" s="23" t="s">
         <v>434</v>
-      </c>
-      <c r="C163" s="23" t="s">
-        <v>435</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" ht="28.5">
+    <row r="164" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="B164" s="23" t="s">
         <v>436</v>
-      </c>
-      <c r="B164" s="23" t="s">
-        <v>437</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -9076,80 +9142,82 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" ht="28.5">
+    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="B165" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="B165" s="23" t="s">
+      <c r="C165" s="23" t="s">
         <v>439</v>
-      </c>
-      <c r="C165" s="23" t="s">
-        <v>440</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" ht="28.5">
+    <row r="166" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="B166" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="B166" s="23" t="s">
+      <c r="C166" s="23" t="s">
         <v>442</v>
-      </c>
-      <c r="C166" s="23" t="s">
-        <v>443</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="B167" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="B167" s="23" t="s">
+      <c r="C167" s="23" t="s">
         <v>445</v>
-      </c>
-      <c r="C167" s="23" t="s">
-        <v>446</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" ht="28.5">
+    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="23" t="s">
         <v>229</v>
       </c>
       <c r="B168" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="C168" s="23" t="s">
         <v>447</v>
-      </c>
-      <c r="C168" s="23" t="s">
-        <v>448</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" ht="142.5">
+    <row r="169" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A169" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="B169" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="B169" s="23" t="s">
-        <v>450</v>
-      </c>
       <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
+      <c r="D169" s="24" t="s">
+        <v>453</v>
+      </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -9158,7 +9226,7 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -9167,7 +9235,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -9176,7 +9244,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -9185,7 +9253,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -9194,7 +9262,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -9203,7 +9271,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -9212,7 +9280,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -9221,7 +9289,7 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -9230,7 +9298,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -9239,7 +9307,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -9248,7 +9316,7 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -9257,7 +9325,7 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -9266,7 +9334,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -9275,7 +9343,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -9284,7 +9352,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -9293,7 +9361,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -9304,16 +9372,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G152"/>
-    <hyperlink r:id="rId2" ref="G156"/>
+    <hyperlink ref="G152" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G156" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/training_linux.xlsx
+++ b/training_linux.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerom\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49175763-927A-467E-BEDD-C19F1DAEB4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4CC5DE-7D68-4043-8D12-9D137D239F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39975" yWindow="165" windowWidth="25785" windowHeight="31410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="150" windowWidth="24630" windowHeight="18495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Базовая инфа" sheetId="1" r:id="rId1"/>
+    <sheet name="Виртуалка" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="533">
   <si>
     <t>Название команды</t>
   </si>
@@ -4437,9 +4438,6 @@
     <t>systemctl stop firewalld</t>
   </si>
   <si>
-    <t>Можно проверить стратует ли хост , ssh localhost</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Можно проверить стратует ли хост , </t>
     </r>
@@ -4453,6 +4451,1144 @@
         <scheme val="minor"/>
       </rPr>
       <t>ssh localhost</t>
+    </r>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Структура</t>
+  </si>
+  <si>
+    <t>Пример1</t>
+  </si>
+  <si>
+    <t>Пример 2</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Комментарий 1</t>
+  </si>
+  <si>
+    <t>Комментарий 2</t>
+  </si>
+  <si>
+    <t>Коментарий 3</t>
+  </si>
+  <si>
+    <t>SSH</t>
+  </si>
+  <si>
+    <t>Примеры с виртуалками</t>
+  </si>
+  <si>
+    <t>Для начала отключить фаервол если он включён</t>
+  </si>
+  <si>
+    <t>Отключение автозапуска фаервола</t>
+  </si>
+  <si>
+    <t>Автоматический запуск ssh после включение системы</t>
+  </si>
+  <si>
+    <t>Проверка статуса работы ssh</t>
+  </si>
+  <si>
+    <t>systemctl status sshd</t>
+  </si>
+  <si>
+    <t>Далее необходимо узнать ip на винде</t>
+  </si>
+  <si>
+    <t>ipconfig</t>
+  </si>
+  <si>
+    <t>необходим IPv4</t>
+  </si>
+  <si>
+    <t>Далее смотрим в виртуалке (сервере) Ip</t>
+  </si>
+  <si>
+    <t>Необходима строчка с inet</t>
+  </si>
+  <si>
+    <t>Далее пробрасываем порт в VirtyalBox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В настройках ОС ,в вкладке сети тип подключения NAT, добавляем пробрасывание портов. </t>
+  </si>
+  <si>
+    <t>Имя указываем любое, протокол tcp, адрес хоста тот что узнали на винде , порт по стандарту 2222, адрес гостя тот что на сервере, порт для SSH по стандарту 22</t>
+  </si>
+  <si>
+    <t>Дальше необходима программа для подключения PuttY или Xshell</t>
+  </si>
+  <si>
+    <t>Указываем в имени хоста ip адрес с винды и указываем порт 2222 или какой мы сделали в виртуал боксе, далее подключение</t>
+  </si>
+  <si>
+    <t>Работа на сервере</t>
+  </si>
+  <si>
+    <t>Пользователи</t>
+  </si>
+  <si>
+    <t>Сбой при проверке подлинности Ubuntu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">создание пользовотеля </t>
+  </si>
+  <si>
+    <t>Задать пароль пользователю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">необходимо добавить пользователя в файл </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>root    ALL=(ALL:ALL) ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         |||||||| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>testuser    ALL=(ALL:ALL) ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Домашние папки по дефолту</t>
+  </si>
+  <si>
+    <t>Они находятся в /home если не меняли</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подробную информацию о пользователе </t>
+  </si>
+  <si>
+    <t xml:space="preserve">посмотреть активных пользователей в системе </t>
+  </si>
+  <si>
+    <t>Посмотреть всех пользователей зарагестрированых на сервере</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что бы отфильтровать ненужную инфу можно написать так: </t>
+  </si>
+  <si>
+    <t>sed 's/:.*//' /etc/passwd</t>
+  </si>
+  <si>
+    <t>https://losst.ru/kak-posmotret-spisok-polzovatelej-v-ubuntu</t>
+  </si>
+  <si>
+    <t>Хранение паролей и настройка паролей пользователя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разлогиниться </t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">конфиги создания учёток </t>
+  </si>
+  <si>
+    <t>vim /etc/default/useradd</t>
+  </si>
+  <si>
+    <t>HOME=/home</t>
+  </si>
+  <si>
+    <t>Файлы которые копируются по умолчанию лежат в папке</t>
+  </si>
+  <si>
+    <t>/etc/skel</t>
+  </si>
+  <si>
+    <t>Редактирование паролей пользователя и инфа по ней</t>
+  </si>
+  <si>
+    <t>Удаление пользователя</t>
+  </si>
+  <si>
+    <t>Создание групп пользователей</t>
+  </si>
+  <si>
+    <t>создание группы</t>
+  </si>
+  <si>
+    <t>grupadd имя группы</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> отвечает за удаление не только пользователя но и домашней папки</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: количество дней за которое пользователь увидит увидомление о необходимости смены пароля </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chage  -E 2022-12-30 -m 7 -M 30 -W 3 testuser1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: максимальное количество дней жизни пароля </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chage  -E 2022-12-30 -m 7 -M 30 testuser1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: минимальное количество дней жизни пароля</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chage  -E 2022-12-30 -m 7 testuser1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Даёт срок жизни акаунту </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chage -E 2022-12-30 testuser1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Опции </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">инфа: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chage -I testuser1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Так же можно посмотреть логи входов пользователей в виде логов </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>last -a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>через файл которых находится в cat /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etc/passwd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> о себе , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id имя пользователя</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userdel -r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>имя пользователя</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uid 1001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' -  это уникальный номер пользователя</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gid 1001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' - это стандартная группа к которой он присвоен</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groups 1001,***</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> группы в которых состоит пользователь</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Используем текстовый редактор vim.       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vim etc/sudoers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Разрешить пользователю использовать команду </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sudo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В строчке </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user privilege</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (проще говоря там где выделен рут), дописываем по аналогии ниже </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ожидает список групп , разделённых запятыми к которым должен принадлежать пользователь</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: создаёт домашний каталогесли его нет. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> предопределяет расположение домашнего каталога по умолчанию (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>useradd -m -d /home/123/testuser testuser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>useradd -m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> имя пользователя</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>passwd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> имя пользователя</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">для решения делаем так 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>su -s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.passwd меняем пароль на новый</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. после входи на сервер под своим пользователем, переход в </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">su </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>может сопровождаться ошибкой</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Запуск </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SSH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Не забыть установить </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ssh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, на некоторых его нет</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> это включение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">после создания файла гит, необходимо сделать </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git remote add origin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ссылка на репозиторий в гите</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) , потом</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> git pull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, потом </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git configи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git pull ссылка</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git clone ссылку</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git branch --remote</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git checkout -b windows origin/windows(Нужная ветка)</t>
     </r>
   </si>
 </sst>
@@ -4460,11 +5596,35 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4546,8 +5706,39 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color rgb="FF424242"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4602,6 +5793,12 @@
         <bgColor indexed="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4614,26 +5811,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4642,10 +5839,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -4662,7 +5859,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
@@ -4675,15 +5872,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
     </dxf>
@@ -6529,17 +7824,162 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1247775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>17469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0E845DE-C541-487C-B0A9-3B6C44940ABB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8534400" y="8867775"/>
+          <a:ext cx="2428875" cy="4103694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3594191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E32F403-FDD3-4631-9FF1-452EB743BF7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1190626" y="14478001"/>
+          <a:ext cx="2181224" cy="3594190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:G186">
   <autoFilter ref="A1:G186" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Название команды" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Команда" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Описание" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Вопросы" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Ответ" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Особенности" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Важные снимки" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Название команды" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Команда" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Описание" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Вопросы" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Ответ" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Особенности" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Важные снимки" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8FD92801-A738-4E97-9685-616EECEC3946}" name="Таблица3" displayName="Таблица3" ref="A1:I41" totalsRowShown="0" headerRowDxfId="10" dataDxfId="0">
+  <autoFilter ref="A1:I41" xr:uid="{8FD92801-A738-4E97-9685-616EECEC3946}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{1626E174-C694-4FFF-8777-E9762AB1CEC2}" name="Название" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{4896455F-2026-4CE1-9950-452163BD0B0A}" name="Структура" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{56504F2D-3058-4F20-BEFC-F5A809469C44}" name="Описание" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{59C03D0A-6E69-47AE-952D-194C080DF02D}" name="Пример1" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{3E6FC407-BE89-402A-82F5-D387E3BCA1C4}" name="Пример 2" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{8EC2D2B2-3979-4CFF-B0AF-D113D8D3A33E}" name="Результат" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{B8B83DB3-8636-42D5-93F3-5A59C4C57874}" name="Комментарий 1" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{78064B2D-D083-4483-AE6A-844A50D96135}" name="Комментарий 2" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{F4B7C10D-0065-4052-BA24-9E5296111374}" name="Коментарий 3" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6757,8 +8197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="D169" sqref="D169"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8077,7 +9517,7 @@
       <c r="A84" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="27" t="s">
         <v>270</v>
       </c>
       <c r="C84" s="1"/>
@@ -8385,7 +9825,9 @@
         <v>304</v>
       </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+      <c r="F110" s="27" t="s">
+        <v>532</v>
+      </c>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -9118,7 +10560,7 @@
       <c r="A163" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="B163" s="24" t="s">
+      <c r="B163" s="27" t="s">
         <v>451</v>
       </c>
       <c r="C163" s="23" t="s">
@@ -9211,7 +10653,7 @@
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -9382,4 +10824,673 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8922A16-1323-425E-A295-6954513D6A12}">
+  <dimension ref="A1:S41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+    </row>
+    <row r="2" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>467</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:19" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>520</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>491</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="30" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="286.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>494</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>498</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>500</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="1:9" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>505</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I20" r:id="rId1" xr:uid="{FA8F7659-D4CE-48A9-9711-2CE212BEF6DF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/training_linux.xlsx
+++ b/training_linux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerom\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4CC5DE-7D68-4043-8D12-9D137D239F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF37B732-09CD-4E5F-B77C-18CB8CF587D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="150" windowWidth="24630" windowHeight="18495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="1815" windowWidth="18285" windowHeight="18480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Базовая инфа" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="598">
   <si>
     <t>Название команды</t>
   </si>
@@ -5591,16 +5591,972 @@
       <t>git checkout -b windows origin/windows(Нужная ветка)</t>
     </r>
   </si>
+  <si>
+    <t>etc/groups</t>
+  </si>
+  <si>
+    <t>Там будет индивидуальный номер который присвоен группе</t>
+  </si>
+  <si>
+    <t>где находится все группы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">присвоить пользователю группу </t>
+  </si>
+  <si>
+    <t>etc/passwd</t>
+  </si>
+  <si>
+    <t>доступ к файлу или папке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дать право на файл - папку </t>
+  </si>
+  <si>
+    <t>присвоение доступа к файлу</t>
+  </si>
+  <si>
+    <t>chown имя пользователя:имя группы файл</t>
+  </si>
+  <si>
+    <t>в второй строчке числовых индификаторов меняем человеку группу</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - право на чтение. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- право на запись. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - право на исполнение файла</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">без </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> действия с файлом никакие не возможн</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">chmod </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> разрешение для владельца)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>разрешение для группы)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> разрешение для всех остальных)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">пример: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chmod 744 file.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    таким образом все сотальные кроме владельца смогут просмотривать файл но не открывать его в редакторе</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>если нужно присвоить доступ к файлу только группе пишем так</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chown :group file.txt</t>
+    </r>
+  </si>
+  <si>
+    <t>РАСШИРЕННЫЕ ПРАВА ДОСТУПА</t>
+  </si>
+  <si>
+    <t>sticky bit</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">что установить такую возможность нужно добавить нужную цифру без остальными </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">chmod </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>777 test.txt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>suid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> даёт право пользователю повысить свой уровень прав до уровня владельца файла</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sgid </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>тоже самое только доступ разрешается группе пользователей</t>
+    </r>
+  </si>
+  <si>
+    <t>Только пользователь создавший файл сможет удалить их в данной дериктории</t>
+  </si>
+  <si>
+    <t>chmod 2777 test.txt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Так же можно добавить пользователя в группу командой </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>usermod -a -G namegroup user</t>
+    </r>
+  </si>
+  <si>
+    <t>https://help.ubuntu.ru/wiki/стандартные_права_unix</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chmod -R 777</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> установит права на каталог и на все объекты</t>
+    </r>
+  </si>
+  <si>
+    <t>Просмотр доступа файла НЕОБЫЧНО</t>
+  </si>
+  <si>
+    <t>getfacl имя файла</t>
+  </si>
+  <si>
+    <t>можно добавить право на файл конкректному человеку</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setfacl -m u:name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> какие именно права) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <t>что бы отменить доступ к файлу юзера</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setfacl -b имя</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>не на всех ОС работает</t>
+  </si>
+  <si>
+    <t>yum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">поиск </t>
+  </si>
+  <si>
+    <t>Установка программ из репозитория</t>
+  </si>
+  <si>
+    <t>yum search (название)</t>
+  </si>
+  <si>
+    <t>на центос</t>
+  </si>
+  <si>
+    <t>аналог на убунтум apt</t>
+  </si>
+  <si>
+    <t>Стандартные потоки ввода/вывода</t>
+  </si>
+  <si>
+    <t>STDIN -&lt;-0</t>
+  </si>
+  <si>
+    <t>STDOUT -&gt;-1</t>
+  </si>
+  <si>
+    <t>STDEER-2&gt;-2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">пример: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cat testfile.txt &gt; infotext.tx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t                                          ВАЖНО: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ЕСЛИ МЫ ХОТИМ ЧТО БЫ ИНФА ДОПОЛНЯЛАСЬ ТО СТАВИМ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">чем мы вводим данные - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>клавиатура</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Куда выводится информация - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>терминал</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Куда выводится </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ошибки - терминал</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проще говоря функция &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>перенаправит всю инфу которая выведется в терминале в файл который мы укажем</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>если его нет то  он его создаст, но если есть то система его перезапишет</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Предположим у нас есть файл test1.txt и создать ещё один фийл с такой же инфой</t>
+  </si>
+  <si>
+    <t>cat &gt; test2.txt &lt; test1.txt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проще говоря мы перенаправили </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> в новосозданный файл </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>test.txt</t>
+    </r>
+  </si>
+  <si>
+    <t>Все возможные ошибки при выполнении действия  можно записать в отдельный файл</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">например у нас есть файл </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>test1, test2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cat test3 2&gt; errortest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">              2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>создастся errortest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и в нём будет ошибка</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, что такого файла нет</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Запуск программы в фоновом режиме </t>
+  </si>
+  <si>
+    <r>
+      <t>В конце строки добавить</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;</t>
+    </r>
+  </si>
+  <si>
+    <t>Что бы инфа программ в фоновом режиме не лилась в терминал мы можем пустить поток данных в файл и в конце обьеденив ошибки с ни же</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cat test1 test2 &gt; logs1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2&gt;&amp;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Получается что данный с файла test1 и test2 попадают в новосозданный logs1 ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> а ошибки  обьеденятся с первым потоком и зальются туда же</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, запустившись всё в фоновом режиме</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Пример запуска фаерфокса: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>firefox &gt; logs1 2&gt;&amp;1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">p.s. Если мы не знаем что за тип файла у нас </t>
+  </si>
+  <si>
+    <t>file namefile</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASCII text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   это просто текстовый файл</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5737,8 +6693,32 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5799,6 +6779,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5811,26 +6797,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5839,10 +6825,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -5859,7 +6845,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
@@ -5872,46 +6858,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5922,43 +6925,43 @@
   <dxfs count="18">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -7968,18 +8971,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8FD92801-A738-4E97-9685-616EECEC3946}" name="Таблица3" displayName="Таблица3" ref="A1:I41" totalsRowShown="0" headerRowDxfId="10" dataDxfId="0">
-  <autoFilter ref="A1:I41" xr:uid="{8FD92801-A738-4E97-9685-616EECEC3946}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8FD92801-A738-4E97-9685-616EECEC3946}" name="Таблица3" displayName="Таблица3" ref="A1:I65" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I65" xr:uid="{8FD92801-A738-4E97-9685-616EECEC3946}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1626E174-C694-4FFF-8777-E9762AB1CEC2}" name="Название" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{4896455F-2026-4CE1-9950-452163BD0B0A}" name="Структура" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{56504F2D-3058-4F20-BEFC-F5A809469C44}" name="Описание" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{59C03D0A-6E69-47AE-952D-194C080DF02D}" name="Пример1" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{3E6FC407-BE89-402A-82F5-D387E3BCA1C4}" name="Пример 2" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{8EC2D2B2-3979-4CFF-B0AF-D113D8D3A33E}" name="Результат" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{B8B83DB3-8636-42D5-93F3-5A59C4C57874}" name="Комментарий 1" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{78064B2D-D083-4483-AE6A-844A50D96135}" name="Комментарий 2" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{F4B7C10D-0065-4052-BA24-9E5296111374}" name="Коментарий 3" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1626E174-C694-4FFF-8777-E9762AB1CEC2}" name="Название" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{4896455F-2026-4CE1-9950-452163BD0B0A}" name="Структура" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{56504F2D-3058-4F20-BEFC-F5A809469C44}" name="Описание" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{59C03D0A-6E69-47AE-952D-194C080DF02D}" name="Пример1" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{3E6FC407-BE89-402A-82F5-D387E3BCA1C4}" name="Пример 2" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{8EC2D2B2-3979-4CFF-B0AF-D113D8D3A33E}" name="Результат" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{B8B83DB3-8636-42D5-93F3-5A59C4C57874}" name="Комментарий 1" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{78064B2D-D083-4483-AE6A-844A50D96135}" name="Комментарий 2" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{F4B7C10D-0065-4052-BA24-9E5296111374}" name="Коментарий 3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8197,7 +9200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
@@ -10828,10 +11831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8922A16-1323-425E-A295-6954513D6A12}">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10886,25 +11889,25 @@
       <c r="S1" s="25"/>
     </row>
     <row r="2" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="34" t="s">
         <v>451</v>
       </c>
       <c r="C3" s="28" t="s">
@@ -10921,7 +11924,7 @@
       <c r="A4" s="28" t="s">
         <v>464</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="34" t="s">
         <v>436</v>
       </c>
       <c r="C4" s="29" t="s">
@@ -10938,7 +11941,7 @@
       <c r="A5" s="29" t="s">
         <v>529</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="34" t="s">
         <v>438</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -10955,7 +11958,7 @@
       <c r="A6" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="34" t="s">
         <v>441</v>
       </c>
       <c r="C6" s="28"/>
@@ -10970,7 +11973,7 @@
       <c r="A7" s="28" t="s">
         <v>466</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="34" t="s">
         <v>467</v>
       </c>
       <c r="C7" s="28"/>
@@ -10985,7 +11988,7 @@
       <c r="A8" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="34" t="s">
         <v>469</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -11002,7 +12005,7 @@
       <c r="A9" s="28" t="s">
         <v>471</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="34" t="s">
         <v>446</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -11048,25 +12051,25 @@
       <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:19" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>479</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="33" t="s">
         <v>480</v>
       </c>
       <c r="C13" s="29" t="s">
@@ -11156,16 +12159,16 @@
       <c r="B18" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>517</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="30" t="s">
         <v>518</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>519</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
@@ -11174,7 +12177,7 @@
       <c r="A19" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="34" t="s">
         <v>188</v>
       </c>
       <c r="C19" s="28"/>
@@ -11195,7 +12198,7 @@
       <c r="C20" s="29" t="s">
         <v>490</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="34" t="s">
         <v>491</v>
       </c>
       <c r="E20" s="29" t="s">
@@ -11204,7 +12207,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="40" t="s">
         <v>492</v>
       </c>
     </row>
@@ -11212,7 +12215,7 @@
       <c r="A21" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -11240,10 +12243,10 @@
       <c r="A23" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="34" t="s">
         <v>497</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="34" t="s">
         <v>498</v>
       </c>
       <c r="D23" s="28"/>
@@ -11257,7 +12260,7 @@
       <c r="A24" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="34" t="s">
         <v>500</v>
       </c>
       <c r="C24" s="28"/>
@@ -11355,23 +12358,23 @@
       <c r="I30" s="28"/>
     </row>
     <row r="31" spans="1:9" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="34" t="s">
         <v>505</v>
       </c>
       <c r="C32" s="28"/>
@@ -11382,10 +12385,16 @@
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>533</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>534</v>
+      </c>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
@@ -11393,21 +12402,35 @@
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
+    <row r="34" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>537</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>558</v>
+      </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+    <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>544</v>
+      </c>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -11415,21 +12438,35 @@
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+    <row r="36" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>545</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>546</v>
+      </c>
       <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
+      <c r="E36" s="35" t="s">
+        <v>560</v>
+      </c>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>547</v>
+      </c>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
@@ -11437,8 +12474,10 @@
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>548</v>
+      </c>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
@@ -11448,49 +12487,408 @@
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="B39" s="35" t="s">
+        <v>554</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>550</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>553</v>
+      </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
+      <c r="B40" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="E40" s="35"/>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
+      <c r="B41" s="34" t="s">
+        <v>549</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>556</v>
+      </c>
       <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
+      <c r="F41" s="41" t="s">
+        <v>559</v>
+      </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
     </row>
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>561</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>562</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+    </row>
+    <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>567</v>
+      </c>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+    </row>
+    <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="42" t="s">
+        <v>565</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>566</v>
+      </c>
+      <c r="C44" s="43"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+    </row>
+    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>568</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>572</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>573</v>
+      </c>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="44" t="s">
+        <v>569</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+    </row>
+    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
+        <v>574</v>
+      </c>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+    </row>
+    <row r="48" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>579</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>583</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>584</v>
+      </c>
+      <c r="F48" s="44" t="s">
+        <v>585</v>
+      </c>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+    </row>
+    <row r="49" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A49" s="28"/>
+      <c r="B49" s="34" t="s">
+        <v>576</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>580</v>
+      </c>
+      <c r="D49" s="44" t="s">
+        <v>582</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>578</v>
+      </c>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+    </row>
+    <row r="50" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="28"/>
+      <c r="B50" s="34" t="s">
+        <v>577</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>581</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>586</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>587</v>
+      </c>
+      <c r="F50" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+    </row>
+    <row r="51" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A51" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>591</v>
+      </c>
+      <c r="D51" s="44" t="s">
+        <v>592</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>593</v>
+      </c>
+      <c r="F51" s="44" t="s">
+        <v>594</v>
+      </c>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+    </row>
+    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="44" t="s">
+        <v>595</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>597</v>
+      </c>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I20" r:id="rId1" xr:uid="{FA8F7659-D4CE-48A9-9711-2CE212BEF6DF}"/>
+    <hyperlink ref="F41" r:id="rId2" xr:uid="{016A1A40-C028-45CC-BB8F-2558F7DC9819}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>